--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2211151.80706117</v>
+        <v>2210518.59520504</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5808968.500444955</v>
+        <v>5808968.500444949</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.451805854</v>
+        <v>632041.451805855</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>38.45009570676077</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="I11" t="n">
-        <v>16.75585940079468</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>24.71680785700315</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>12.71192971168193</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="V13" t="n">
         <v>19.67282821445599</v>
       </c>
       <c r="W13" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>12.71192971168185</v>
       </c>
       <c r="I14" t="n">
-        <v>16.75585940079466</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>20.67287816789048</v>
+        <v>24.71680785700315</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
     </row>
     <row r="15">
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="V16" t="n">
         <v>19.67282821445599</v>
       </c>
       <c r="W16" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1850,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>33.58244823586926</v>
       </c>
       <c r="F17" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="H17" t="n">
         <v>9.438999912589679</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y17" t="n">
-        <v>22.10578347477766</v>
+        <v>9.131110165841873</v>
       </c>
     </row>
     <row r="18">
@@ -2087,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>22.10578347477728</v>
       </c>
       <c r="F20" t="n">
-        <v>22.10578347477739</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="H20" t="n">
         <v>9.438999912589679</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
     </row>
     <row r="21">
@@ -2330,7 +2330,7 @@
         <v>65.30278581424659</v>
       </c>
       <c r="G23" t="n">
-        <v>77.40126617658957</v>
+        <v>77.40126617658942</v>
       </c>
       <c r="H23" t="n">
         <v>9.438999912589679</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>137.2320734133372</v>
+        <v>137.2320734133374</v>
       </c>
       <c r="C26" t="n">
-        <v>113.3503304166827</v>
+        <v>113.3503304166829</v>
       </c>
       <c r="D26" t="n">
-        <v>100.9169926777312</v>
+        <v>100.9169926777313</v>
       </c>
       <c r="E26" t="n">
-        <v>134.62374509714</v>
+        <v>134.6237450971402</v>
       </c>
       <c r="F26" t="n">
-        <v>166.3440826755174</v>
+        <v>166.3440826755175</v>
       </c>
       <c r="G26" t="n">
-        <v>182.0136726774939</v>
+        <v>182.0136726774941</v>
       </c>
       <c r="H26" t="n">
-        <v>110.4802967738604</v>
+        <v>110.4802967738606</v>
       </c>
       <c r="I26" t="n">
-        <v>5.336879406292468</v>
+        <v>5.33687940629261</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>13.29782786250096</v>
+        <v>13.2978278625011</v>
       </c>
       <c r="V26" t="n">
-        <v>84.02461664465591</v>
+        <v>84.02461664465605</v>
       </c>
       <c r="W26" t="n">
-        <v>101.0412968612708</v>
+        <v>101.0412968612709</v>
       </c>
       <c r="X26" t="n">
-        <v>122.92754733021</v>
+        <v>122.9275473302102</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.4304004539538</v>
+        <v>145.4304004539539</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.373982013970737</v>
+        <v>0.3739820139708791</v>
       </c>
       <c r="V27" t="n">
-        <v>3.793753950906137</v>
+        <v>3.793753950906279</v>
       </c>
       <c r="W27" t="n">
-        <v>29.84941661251548</v>
+        <v>29.84941661251563</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>51.80214033224846</v>
+        <v>51.80214033224861</v>
       </c>
       <c r="V28" t="n">
-        <v>8.253848219953795</v>
+        <v>8.253848219953937</v>
       </c>
       <c r="W28" t="n">
-        <v>53.45554012483922</v>
+        <v>53.45554012483936</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>137.2320734133372</v>
+        <v>137.2320734133373</v>
       </c>
       <c r="C29" t="n">
-        <v>113.3503304166827</v>
+        <v>113.3503304166828</v>
       </c>
       <c r="D29" t="n">
         <v>100.9169926777312</v>
@@ -2810,7 +2810,7 @@
         <v>110.4802967738605</v>
       </c>
       <c r="I29" t="n">
-        <v>5.336879406292496</v>
+        <v>5.336879406292525</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>13.29782786250099</v>
+        <v>13.29782786250102</v>
       </c>
       <c r="V29" t="n">
-        <v>84.02461664465594</v>
+        <v>84.02461664465596</v>
       </c>
       <c r="W29" t="n">
         <v>101.0412968612708</v>
       </c>
       <c r="X29" t="n">
-        <v>122.92754733021</v>
+        <v>122.9275473302101</v>
       </c>
       <c r="Y29" t="n">
         <v>145.4304004539538</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.3739820139707654</v>
+        <v>0.3739820139707938</v>
       </c>
       <c r="V30" t="n">
-        <v>3.793753950906165</v>
+        <v>3.793753950906193</v>
       </c>
       <c r="W30" t="n">
-        <v>29.84941661251551</v>
+        <v>29.84941661251554</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>51.80214033224849</v>
+        <v>51.80214033224852</v>
       </c>
       <c r="V31" t="n">
-        <v>8.253848219953824</v>
+        <v>8.253848219953852</v>
       </c>
       <c r="W31" t="n">
-        <v>53.45554012483925</v>
+        <v>53.45554012483927</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.2320734133372</v>
+        <v>137.2320734133374</v>
       </c>
       <c r="C32" t="n">
-        <v>113.3503304166827</v>
+        <v>113.3503304166829</v>
       </c>
       <c r="D32" t="n">
-        <v>100.9169926777312</v>
+        <v>100.9169926777313</v>
       </c>
       <c r="E32" t="n">
-        <v>134.6237450971401</v>
+        <v>134.6237450971402</v>
       </c>
       <c r="F32" t="n">
-        <v>166.3440826755174</v>
+        <v>166.3440826755175</v>
       </c>
       <c r="G32" t="n">
-        <v>182.0136726774939</v>
+        <v>182.013672677494</v>
       </c>
       <c r="H32" t="n">
-        <v>110.4802967738605</v>
+        <v>110.4802967738606</v>
       </c>
       <c r="I32" t="n">
-        <v>5.336879406292496</v>
+        <v>5.33687940629261</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>13.29782786250098</v>
+        <v>13.29782786250109</v>
       </c>
       <c r="V32" t="n">
-        <v>84.02461664465594</v>
+        <v>84.02461664465605</v>
       </c>
       <c r="W32" t="n">
-        <v>101.0412968612708</v>
+        <v>101.0412968612709</v>
       </c>
       <c r="X32" t="n">
-        <v>122.92754733021</v>
+        <v>122.9275473302102</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.4304004539538</v>
+        <v>145.4304004539539</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3739820139707654</v>
+        <v>0.3739820139708791</v>
       </c>
       <c r="V33" t="n">
-        <v>3.793753950906165</v>
+        <v>3.793753950906279</v>
       </c>
       <c r="W33" t="n">
-        <v>29.84941661251551</v>
+        <v>29.84941661251563</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>51.80214033224849</v>
+        <v>51.80214033224861</v>
       </c>
       <c r="V34" t="n">
-        <v>8.253848219953824</v>
+        <v>8.253848219953937</v>
       </c>
       <c r="W34" t="n">
-        <v>53.45554012483925</v>
+        <v>53.45554012483936</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>123.9342455508362</v>
+        <v>123.9342455508363</v>
       </c>
       <c r="C35" t="n">
-        <v>100.0525025541817</v>
+        <v>100.0525025541818</v>
       </c>
       <c r="D35" t="n">
-        <v>87.61916481523016</v>
+        <v>87.61916481523022</v>
       </c>
       <c r="E35" t="n">
-        <v>121.325917234639</v>
+        <v>121.3259172346391</v>
       </c>
       <c r="F35" t="n">
         <v>153.0462548130164</v>
@@ -3281,7 +3281,7 @@
         <v>168.7158448149929</v>
       </c>
       <c r="H35" t="n">
-        <v>97.18246891135945</v>
+        <v>97.18246891135951</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>70.7267887821549</v>
+        <v>70.72678878215496</v>
       </c>
       <c r="W35" t="n">
-        <v>87.74346899876977</v>
+        <v>87.74346899876983</v>
       </c>
       <c r="X35" t="n">
-        <v>109.629719467709</v>
+        <v>109.6297194677091</v>
       </c>
       <c r="Y35" t="n">
         <v>132.1325725914528</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>16.55158875001447</v>
+        <v>16.55158875001453</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>38.50431246974745</v>
+        <v>38.50431246974751</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>40.15771226233821</v>
+        <v>40.15771226233826</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>123.9342455508362</v>
+        <v>123.9342455508363</v>
       </c>
       <c r="C38" t="n">
-        <v>100.0525025541817</v>
+        <v>100.0525025541818</v>
       </c>
       <c r="D38" t="n">
-        <v>87.61916481523014</v>
+        <v>87.61916481523022</v>
       </c>
       <c r="E38" t="n">
-        <v>121.325917234639</v>
+        <v>121.3259172346391</v>
       </c>
       <c r="F38" t="n">
-        <v>153.0462548130163</v>
+        <v>153.0462548130164</v>
       </c>
       <c r="G38" t="n">
         <v>168.7158448149929</v>
       </c>
       <c r="H38" t="n">
-        <v>97.18246891135942</v>
+        <v>97.18246891135951</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>70.72678878215487</v>
+        <v>70.72678878215496</v>
       </c>
       <c r="W38" t="n">
-        <v>87.74346899876974</v>
+        <v>87.74346899876983</v>
       </c>
       <c r="X38" t="n">
-        <v>109.629719467709</v>
+        <v>109.6297194677091</v>
       </c>
       <c r="Y38" t="n">
-        <v>132.1325725914527</v>
+        <v>132.1325725914528</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>16.55158875001445</v>
+        <v>16.55158875001453</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>38.50431246974743</v>
+        <v>38.50431246974751</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>40.15771226233818</v>
+        <v>40.15771226233826</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>123.9342455508362</v>
+        <v>123.9342455508364</v>
       </c>
       <c r="C44" t="n">
-        <v>100.0525025541817</v>
+        <v>100.0525025541818</v>
       </c>
       <c r="D44" t="n">
-        <v>87.61916481523049</v>
+        <v>87.61916481523031</v>
       </c>
       <c r="E44" t="n">
-        <v>121.3259172346391</v>
+        <v>121.3259172346392</v>
       </c>
       <c r="F44" t="n">
-        <v>153.0462548130164</v>
+        <v>153.0462548130149</v>
       </c>
       <c r="G44" t="n">
-        <v>168.7158448149929</v>
+        <v>168.7158448149931</v>
       </c>
       <c r="H44" t="n">
-        <v>97.18246891135948</v>
+        <v>97.18246891135959</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>70.72678878215493</v>
+        <v>70.72678878215504</v>
       </c>
       <c r="W44" t="n">
-        <v>87.7434689987698</v>
+        <v>87.74346899876991</v>
       </c>
       <c r="X44" t="n">
-        <v>109.629719467709</v>
+        <v>109.6297194677092</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.1325725914528</v>
+        <v>132.1325725914529</v>
       </c>
     </row>
     <row r="45">
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>16.5515887500145</v>
+        <v>16.55158875001462</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>38.50431246974748</v>
+        <v>38.5043124697476</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>40.15771226233824</v>
+        <v>40.15771226233835</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>145.0096290006619</v>
+        <v>46.32278000729931</v>
       </c>
       <c r="C11" t="n">
-        <v>145.0096290006619</v>
+        <v>46.32278000729931</v>
       </c>
       <c r="D11" t="n">
-        <v>106.1711484887824</v>
+        <v>46.32278000729931</v>
       </c>
       <c r="E11" t="n">
-        <v>106.1711484887824</v>
+        <v>46.32278000729931</v>
       </c>
       <c r="F11" t="n">
-        <v>106.1711484887824</v>
+        <v>46.32278000729931</v>
       </c>
       <c r="G11" t="n">
-        <v>63.24789051315272</v>
+        <v>46.32278000729931</v>
       </c>
       <c r="H11" t="n">
-        <v>20.32463253752307</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="I11" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="J11" t="n">
-        <v>45.46860717358448</v>
+        <v>39.5119156768253</v>
       </c>
       <c r="K11" t="n">
-        <v>45.46860717358448</v>
+        <v>81.58100081873974</v>
       </c>
       <c r="L11" t="n">
-        <v>45.46860717358448</v>
+        <v>81.58100081873974</v>
       </c>
       <c r="M11" t="n">
-        <v>87.5376923154991</v>
+        <v>98.80170231311891</v>
       </c>
       <c r="N11" t="n">
-        <v>106.6095859178053</v>
+        <v>140.8707874550333</v>
       </c>
       <c r="O11" t="n">
-        <v>148.67867105972</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="P11" t="n">
-        <v>148.67867105972</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.67867105972</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="R11" t="n">
-        <v>169.9761015834934</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="S11" t="n">
-        <v>167.1684000239496</v>
+        <v>167.1684000239489</v>
       </c>
       <c r="T11" t="n">
-        <v>169.9761015834934</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="U11" t="n">
-        <v>145.0096290006619</v>
+        <v>145.0096290006612</v>
       </c>
       <c r="V11" t="n">
-        <v>145.0096290006619</v>
+        <v>102.0863710250317</v>
       </c>
       <c r="W11" t="n">
-        <v>145.0096290006619</v>
+        <v>59.16311304940228</v>
       </c>
       <c r="X11" t="n">
-        <v>145.0096290006619</v>
+        <v>46.32278000729931</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.0096290006619</v>
+        <v>46.32278000729931</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="C12" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="D12" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="E12" t="n">
-        <v>30.29416674924914</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="F12" t="n">
-        <v>30.29416674924914</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="G12" t="n">
-        <v>72.36325189116376</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="H12" t="n">
-        <v>72.36325189116376</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="I12" t="n">
-        <v>72.36325189116376</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="J12" t="n">
-        <v>72.36325189116376</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="K12" t="n">
-        <v>72.36325189116376</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="L12" t="n">
-        <v>72.36325189116376</v>
+        <v>30.29416674924931</v>
       </c>
       <c r="M12" t="n">
-        <v>72.36325189116376</v>
+        <v>30.29416674924931</v>
       </c>
       <c r="N12" t="n">
-        <v>72.36325189116376</v>
+        <v>30.29416674924931</v>
       </c>
       <c r="O12" t="n">
-        <v>72.36325189116376</v>
+        <v>30.29416674924931</v>
       </c>
       <c r="P12" t="n">
-        <v>72.36325189116376</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.36325189116376</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="R12" t="n">
-        <v>72.36325189116376</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="S12" t="n">
-        <v>72.36325189116376</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="T12" t="n">
-        <v>72.36325189116376</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="U12" t="n">
-        <v>60.45116905432241</v>
+        <v>60.45116905432239</v>
       </c>
       <c r="V12" t="n">
-        <v>45.08477112966752</v>
+        <v>45.08477112966751</v>
       </c>
       <c r="W12" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="X12" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="C13" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="D13" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="E13" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="F13" t="n">
-        <v>35.32444897568936</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="G13" t="n">
-        <v>35.32444897568936</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="H13" t="n">
-        <v>35.32444897568936</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="I13" t="n">
-        <v>35.32444897568936</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="J13" t="n">
-        <v>35.32444897568936</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="K13" t="n">
-        <v>77.39353411760398</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="L13" t="n">
-        <v>77.39353411760398</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="M13" t="n">
-        <v>77.39353411760398</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="N13" t="n">
-        <v>119.4626192595186</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="O13" t="n">
-        <v>119.4626192595186</v>
+        <v>45.46860717358429</v>
       </c>
       <c r="P13" t="n">
-        <v>119.4626192595186</v>
+        <v>87.53769231549873</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.4626192595186</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="R13" t="n">
-        <v>119.4626192595186</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="S13" t="n">
-        <v>109.1175816338948</v>
+        <v>107.5178873496993</v>
       </c>
       <c r="T13" t="n">
-        <v>109.1175816338948</v>
+        <v>109.1175816338944</v>
       </c>
       <c r="U13" t="n">
-        <v>66.19432365826516</v>
+        <v>66.19432365826496</v>
       </c>
       <c r="V13" t="n">
-        <v>46.32278000729951</v>
+        <v>46.32278000729931</v>
       </c>
       <c r="W13" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="X13" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.2478905131528</v>
+        <v>16.23985507377283</v>
       </c>
       <c r="C14" t="n">
-        <v>20.32463253752316</v>
+        <v>16.23985507377283</v>
       </c>
       <c r="D14" t="n">
-        <v>20.32463253752316</v>
+        <v>16.23985507377283</v>
       </c>
       <c r="E14" t="n">
-        <v>20.32463253752316</v>
+        <v>16.23985507377283</v>
       </c>
       <c r="F14" t="n">
-        <v>20.32463253752316</v>
+        <v>16.23985507377283</v>
       </c>
       <c r="G14" t="n">
-        <v>20.32463253752316</v>
+        <v>16.23985507377283</v>
       </c>
       <c r="H14" t="n">
-        <v>20.32463253752316</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="I14" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="J14" t="n">
-        <v>39.51191567682535</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="K14" t="n">
-        <v>39.51191567682535</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="L14" t="n">
-        <v>39.51191567682535</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="M14" t="n">
-        <v>81.58100081873997</v>
+        <v>45.46860717358429</v>
       </c>
       <c r="N14" t="n">
-        <v>85.83793129966415</v>
+        <v>87.53769231549873</v>
       </c>
       <c r="O14" t="n">
-        <v>127.9070164415788</v>
+        <v>99.56502340805002</v>
       </c>
       <c r="P14" t="n">
-        <v>127.9070164415788</v>
+        <v>141.6341085499645</v>
       </c>
       <c r="Q14" t="n">
-        <v>169.9761015834934</v>
+        <v>141.6341085499645</v>
       </c>
       <c r="R14" t="n">
-        <v>169.9761015834934</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="S14" t="n">
-        <v>167.1684000239496</v>
+        <v>167.1684000239489</v>
       </c>
       <c r="T14" t="n">
-        <v>169.9761015834934</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="U14" t="n">
-        <v>149.0944064644121</v>
+        <v>145.0096290006612</v>
       </c>
       <c r="V14" t="n">
-        <v>149.0944064644121</v>
+        <v>145.0096290006612</v>
       </c>
       <c r="W14" t="n">
-        <v>106.1711484887824</v>
+        <v>102.0863710250318</v>
       </c>
       <c r="X14" t="n">
-        <v>106.1711484887824</v>
+        <v>59.16311304940229</v>
       </c>
       <c r="Y14" t="n">
-        <v>106.1711484887824</v>
+        <v>16.23985507377283</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.0123717239995</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="C15" t="n">
-        <v>101.0123717239995</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="D15" t="n">
-        <v>101.0123717239995</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="E15" t="n">
-        <v>101.0123717239995</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="F15" t="n">
-        <v>101.0123717239995</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="G15" t="n">
-        <v>101.0123717239995</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="H15" t="n">
-        <v>101.0123717239995</v>
+        <v>30.29416674924931</v>
       </c>
       <c r="I15" t="n">
-        <v>101.0123717239995</v>
+        <v>30.29416674924931</v>
       </c>
       <c r="J15" t="n">
-        <v>101.0123717239995</v>
+        <v>30.29416674924931</v>
       </c>
       <c r="K15" t="n">
-        <v>101.0123717239995</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="L15" t="n">
-        <v>101.0123717239995</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="M15" t="n">
-        <v>101.0123717239995</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="N15" t="n">
-        <v>101.0123717239995</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="O15" t="n">
-        <v>101.0123717239995</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="P15" t="n">
-        <v>101.0123717239995</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="Q15" t="n">
-        <v>101.0123717239995</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="R15" t="n">
-        <v>143.0814568659141</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="S15" t="n">
-        <v>169.9761015834934</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="T15" t="n">
-        <v>169.9761015834934</v>
+        <v>72.36325189116374</v>
       </c>
       <c r="U15" t="n">
-        <v>158.064018746652</v>
+        <v>60.45116905432239</v>
       </c>
       <c r="V15" t="n">
-        <v>142.6976208219972</v>
+        <v>45.08477112966751</v>
       </c>
       <c r="W15" t="n">
-        <v>101.0123717239995</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="X15" t="n">
-        <v>101.0123717239995</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="Y15" t="n">
-        <v>101.0123717239995</v>
+        <v>3.399522031669854</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.399522031669868</v>
+        <v>11.61148704593709</v>
       </c>
       <c r="C16" t="n">
-        <v>3.399522031669868</v>
+        <v>11.61148704593709</v>
       </c>
       <c r="D16" t="n">
-        <v>45.46860717358448</v>
+        <v>33.72475469149423</v>
       </c>
       <c r="E16" t="n">
-        <v>87.5376923154991</v>
+        <v>75.79383983340867</v>
       </c>
       <c r="F16" t="n">
-        <v>87.5376923154991</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="G16" t="n">
-        <v>87.5376923154991</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="H16" t="n">
-        <v>87.5376923154991</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="I16" t="n">
-        <v>87.5376923154991</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="J16" t="n">
-        <v>87.5376923154991</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="K16" t="n">
-        <v>87.5376923154991</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="L16" t="n">
-        <v>87.5376923154991</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="M16" t="n">
-        <v>87.5376923154991</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="N16" t="n">
-        <v>87.5376923154991</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="O16" t="n">
-        <v>87.5376923154991</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="P16" t="n">
-        <v>87.5376923154991</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="Q16" t="n">
-        <v>98.28879102687793</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="R16" t="n">
-        <v>119.4626192595186</v>
+        <v>117.8629249753231</v>
       </c>
       <c r="S16" t="n">
-        <v>109.1175816338948</v>
+        <v>107.5178873496993</v>
       </c>
       <c r="T16" t="n">
-        <v>109.1175816338948</v>
+        <v>109.1175816338944</v>
       </c>
       <c r="U16" t="n">
-        <v>66.19432365826516</v>
+        <v>66.19432365826496</v>
       </c>
       <c r="V16" t="n">
-        <v>46.32278000729951</v>
+        <v>46.32278000729931</v>
       </c>
       <c r="W16" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="X16" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.399522031669868</v>
+        <v>11.61148704593709</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>111.090687414964</v>
+        <v>102.0890943240506</v>
       </c>
       <c r="C17" t="n">
-        <v>98.65732018727513</v>
+        <v>89.6557270963618</v>
       </c>
       <c r="D17" t="n">
-        <v>98.78038132897933</v>
+        <v>89.77878823806597</v>
       </c>
       <c r="E17" t="n">
-        <v>98.78038132897933</v>
+        <v>55.85712335334949</v>
       </c>
       <c r="F17" t="n">
-        <v>55.85712335334969</v>
+        <v>55.85712335334949</v>
       </c>
       <c r="G17" t="n">
-        <v>12.93386537772005</v>
+        <v>12.93386537772004</v>
       </c>
       <c r="H17" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="I17" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="J17" t="n">
-        <v>45.46860717358448</v>
+        <v>45.46860717358429</v>
       </c>
       <c r="K17" t="n">
-        <v>45.46860717358448</v>
+        <v>87.53769231549873</v>
       </c>
       <c r="L17" t="n">
-        <v>45.46860717358448</v>
+        <v>111.0605030271295</v>
       </c>
       <c r="M17" t="n">
-        <v>45.46860717358448</v>
+        <v>111.0605030271295</v>
       </c>
       <c r="N17" t="n">
-        <v>45.46860717358448</v>
+        <v>111.0605030271295</v>
       </c>
       <c r="O17" t="n">
-        <v>45.46860717358448</v>
+        <v>111.0605030271295</v>
       </c>
       <c r="P17" t="n">
-        <v>45.46860717358448</v>
+        <v>111.0605030271295</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.46860717358448</v>
+        <v>111.0605030271295</v>
       </c>
       <c r="R17" t="n">
-        <v>87.5376923154991</v>
+        <v>111.0605030271295</v>
       </c>
       <c r="S17" t="n">
-        <v>127.9070164415788</v>
+        <v>153.1295881690439</v>
       </c>
       <c r="T17" t="n">
-        <v>169.9761015834934</v>
+        <v>153.1295881690439</v>
       </c>
       <c r="U17" t="n">
-        <v>169.9761015834934</v>
+        <v>153.1295881690439</v>
       </c>
       <c r="V17" t="n">
-        <v>169.9761015834934</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="W17" t="n">
-        <v>169.9761015834934</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="X17" t="n">
-        <v>169.9761015834934</v>
+        <v>147.8687778774934</v>
       </c>
       <c r="Y17" t="n">
-        <v>147.6470273665462</v>
+        <v>138.6454342756329</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="C18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="D18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="E18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="F18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="G18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="H18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="I18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="J18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="K18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="L18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="M18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="N18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="O18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="P18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="R18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="S18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="T18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="U18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="V18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="W18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="X18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="C19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="D19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="E19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="F19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="G19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="H19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="I19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="J19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="K19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="L19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="M19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="N19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="O19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="P19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="R19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="S19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="T19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="U19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="V19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="W19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="X19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90.49650365628142</v>
+        <v>90.49650365628091</v>
       </c>
       <c r="C20" t="n">
-        <v>78.06313642859257</v>
+        <v>78.06313642859212</v>
       </c>
       <c r="D20" t="n">
-        <v>78.18619757029673</v>
+        <v>78.18619757029629</v>
       </c>
       <c r="E20" t="n">
-        <v>78.18619757029673</v>
+        <v>55.85712335334951</v>
       </c>
       <c r="F20" t="n">
-        <v>55.85712335334986</v>
+        <v>55.85712335334951</v>
       </c>
       <c r="G20" t="n">
         <v>12.93386537772005</v>
       </c>
       <c r="H20" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="I20" t="n">
-        <v>43.76884615774954</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="J20" t="n">
-        <v>43.76884615774954</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="K20" t="n">
-        <v>43.76884615774954</v>
+        <v>45.46860717358429</v>
       </c>
       <c r="L20" t="n">
-        <v>43.76884615774954</v>
+        <v>85.83793129966381</v>
       </c>
       <c r="M20" t="n">
-        <v>43.76884615774954</v>
+        <v>85.83793129966381</v>
       </c>
       <c r="N20" t="n">
-        <v>43.76884615774954</v>
+        <v>85.83793129966381</v>
       </c>
       <c r="O20" t="n">
-        <v>85.83793129966415</v>
+        <v>85.83793129966381</v>
       </c>
       <c r="P20" t="n">
-        <v>85.83793129966415</v>
+        <v>85.83793129966381</v>
       </c>
       <c r="Q20" t="n">
-        <v>127.9070164415788</v>
+        <v>85.83793129966381</v>
       </c>
       <c r="R20" t="n">
-        <v>127.9070164415788</v>
+        <v>127.9070164415782</v>
       </c>
       <c r="S20" t="n">
-        <v>127.9070164415788</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="T20" t="n">
-        <v>127.9070164415788</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="U20" t="n">
-        <v>169.9761015834934</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="V20" t="n">
-        <v>169.9761015834934</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="W20" t="n">
-        <v>169.9761015834934</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="X20" t="n">
-        <v>169.9761015834934</v>
+        <v>169.9761015834927</v>
       </c>
       <c r="Y20" t="n">
-        <v>127.0528436078637</v>
+        <v>127.0528436078632</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="C21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="D21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="E21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="F21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="G21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="H21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="I21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="J21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="K21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="L21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="M21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="N21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="O21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="P21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="R21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="S21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="T21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="U21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="V21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="W21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="X21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="C22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="D22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="E22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="F22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="G22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="H22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="I22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="J22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="K22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="L22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="M22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="N22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="O22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="P22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="R22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="S22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="T22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="U22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="V22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="W22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="X22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.399522031669868</v>
+        <v>3.399522031669854</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>206.1039226723292</v>
+        <v>206.1039226723286</v>
       </c>
       <c r="C23" t="n">
-        <v>193.6705554446404</v>
+        <v>193.6705554446398</v>
       </c>
       <c r="D23" t="n">
-        <v>193.7936165863446</v>
+        <v>193.793616586344</v>
       </c>
       <c r="E23" t="n">
-        <v>159.8719517016281</v>
+        <v>159.8719517016275</v>
       </c>
       <c r="F23" t="n">
-        <v>93.90954178824768</v>
+        <v>93.90954178824722</v>
       </c>
       <c r="G23" t="n">
-        <v>15.72644464017735</v>
+        <v>15.72644464017734</v>
       </c>
       <c r="H23" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="I23" t="n">
-        <v>6.192101294127166</v>
+        <v>82.81935480895068</v>
       </c>
       <c r="J23" t="n">
-        <v>6.192101294127166</v>
+        <v>82.81935480895068</v>
       </c>
       <c r="K23" t="n">
-        <v>6.192101294127166</v>
+        <v>82.81935480895068</v>
       </c>
       <c r="L23" t="n">
-        <v>6.192101294127166</v>
+        <v>82.81935480895068</v>
       </c>
       <c r="M23" t="n">
-        <v>6.192101294127166</v>
+        <v>82.81935480895068</v>
       </c>
       <c r="N23" t="n">
-        <v>6.192101294127166</v>
+        <v>82.81935480895068</v>
       </c>
       <c r="O23" t="n">
-        <v>6.192101294127166</v>
+        <v>139.5040442622619</v>
       </c>
       <c r="P23" t="n">
-        <v>6.192101294127166</v>
+        <v>216.1312977770854</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.192101294127166</v>
+        <v>292.7585512919089</v>
       </c>
       <c r="R23" t="n">
-        <v>79.72330416188726</v>
+        <v>292.7585512919089</v>
       </c>
       <c r="S23" t="n">
-        <v>156.3505576767109</v>
+        <v>292.7585512919089</v>
       </c>
       <c r="T23" t="n">
-        <v>232.9778111915346</v>
+        <v>292.7585512919089</v>
       </c>
       <c r="U23" t="n">
-        <v>309.6050647063583</v>
+        <v>292.7585512919089</v>
       </c>
       <c r="V23" t="n">
-        <v>309.6050647063583</v>
+        <v>309.6050647063577</v>
       </c>
       <c r="W23" t="n">
-        <v>309.6050647063583</v>
+        <v>309.6050647063577</v>
       </c>
       <c r="X23" t="n">
-        <v>287.497741000359</v>
+        <v>287.4977410003585</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.6602626239115</v>
+        <v>242.660262623911</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="C24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="D24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="E24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="F24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="G24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="H24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="I24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="J24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="K24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="L24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="M24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="N24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="O24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="P24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="R24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="S24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="T24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="U24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="V24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="W24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="X24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="C25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="D25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="E25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="F25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="G25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="H25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="I25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="J25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="K25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="L25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="M25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="N25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="O25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="P25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="R25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="S25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="T25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="U25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="V25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="W25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="X25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.192101294127166</v>
+        <v>6.192101294127154</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>850.489667054254</v>
+        <v>850.4896670542537</v>
       </c>
       <c r="C26" t="n">
-        <v>735.9943838050796</v>
+        <v>735.9943838050791</v>
       </c>
       <c r="D26" t="n">
-        <v>634.058027564947</v>
+        <v>634.0580275649464</v>
       </c>
       <c r="E26" t="n">
-        <v>498.0744466587449</v>
+        <v>498.0744466587443</v>
       </c>
       <c r="F26" t="n">
-        <v>330.0501207238789</v>
+        <v>330.050120723878</v>
       </c>
       <c r="G26" t="n">
-        <v>146.1979261001472</v>
+        <v>146.1979261001468</v>
       </c>
       <c r="H26" t="n">
-        <v>34.60166673261138</v>
+        <v>34.60166673261154</v>
       </c>
       <c r="I26" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J26" t="n">
-        <v>185.1069238584295</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K26" t="n">
-        <v>348.0850157784447</v>
+        <v>253.1756670773798</v>
       </c>
       <c r="L26" t="n">
-        <v>390.0148205790255</v>
+        <v>529.5920871728116</v>
       </c>
       <c r="M26" t="n">
-        <v>700.0323824074929</v>
+        <v>684.4234208087324</v>
       </c>
       <c r="N26" t="n">
-        <v>816.7133788673459</v>
+        <v>816.7133788673468</v>
       </c>
       <c r="O26" t="n">
         <v>1080.305308290657</v>
@@ -6245,22 +6245,22 @@
         <v>1295.485063203502</v>
       </c>
       <c r="Q26" t="n">
-        <v>1437.878519026255</v>
+        <v>1437.878519026256</v>
       </c>
       <c r="R26" t="n">
-        <v>1437.878519026255</v>
+        <v>1437.878519026256</v>
       </c>
       <c r="S26" t="n">
-        <v>1446.431480922303</v>
+        <v>1446.431480922304</v>
       </c>
       <c r="T26" t="n">
-        <v>1460.543972676404</v>
+        <v>1460.543972676405</v>
       </c>
       <c r="U26" t="n">
         <v>1447.111823320343</v>
       </c>
       <c r="V26" t="n">
-        <v>1362.238473174225</v>
+        <v>1362.238473174226</v>
       </c>
       <c r="W26" t="n">
         <v>1260.17655715274</v>
@@ -6269,7 +6269,7 @@
         <v>1136.007317425255</v>
       </c>
       <c r="Y26" t="n">
-        <v>989.1079230273219</v>
+        <v>989.1079230273217</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="F27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="G27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="H27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="I27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="L27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="M27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="N27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="O27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="P27" t="n">
-        <v>63.57163963271228</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.57163963271228</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="R27" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271272</v>
       </c>
       <c r="S27" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271272</v>
       </c>
       <c r="T27" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271272</v>
       </c>
       <c r="U27" t="n">
-        <v>63.19388002264083</v>
+        <v>63.19388002264113</v>
       </c>
       <c r="V27" t="n">
-        <v>59.36180532475585</v>
+        <v>59.361805324756</v>
       </c>
       <c r="W27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D28" t="n">
-        <v>29.21087945352808</v>
+        <v>119.9666710001755</v>
       </c>
       <c r="E28" t="n">
-        <v>29.21087945352808</v>
+        <v>119.9666710001755</v>
       </c>
       <c r="F28" t="n">
-        <v>29.21087945352808</v>
+        <v>119.9666710001755</v>
       </c>
       <c r="G28" t="n">
-        <v>29.21087945352808</v>
+        <v>119.9666710001755</v>
       </c>
       <c r="H28" t="n">
-        <v>29.21087945352808</v>
+        <v>119.9666710001755</v>
       </c>
       <c r="I28" t="n">
-        <v>29.21087945352808</v>
+        <v>119.9666710001755</v>
       </c>
       <c r="J28" t="n">
-        <v>29.21087945352808</v>
+        <v>119.9666710001755</v>
       </c>
       <c r="K28" t="n">
-        <v>29.21087945352808</v>
+        <v>119.9666710001755</v>
       </c>
       <c r="L28" t="n">
-        <v>29.21087945352808</v>
+        <v>130.9645047495658</v>
       </c>
       <c r="M28" t="n">
-        <v>29.21087945352808</v>
+        <v>130.9645047495658</v>
       </c>
       <c r="N28" t="n">
-        <v>29.21087945352808</v>
+        <v>130.9645047495658</v>
       </c>
       <c r="O28" t="n">
-        <v>143.8689892283174</v>
+        <v>130.9645047495658</v>
       </c>
       <c r="P28" t="n">
-        <v>143.8689892283174</v>
+        <v>130.9645047495658</v>
       </c>
       <c r="Q28" t="n">
-        <v>143.8689892283174</v>
+        <v>130.9645047495658</v>
       </c>
       <c r="R28" t="n">
-        <v>143.8689892283174</v>
+        <v>130.9645047495658</v>
       </c>
       <c r="S28" t="n">
-        <v>143.8689892283174</v>
+        <v>130.9645047495658</v>
       </c>
       <c r="T28" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283179</v>
       </c>
       <c r="U28" t="n">
-        <v>91.543594953319</v>
+        <v>91.5435949533193</v>
       </c>
       <c r="V28" t="n">
-        <v>83.20637452912325</v>
+        <v>83.20637452912341</v>
       </c>
       <c r="W28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>850.4896670542537</v>
+        <v>850.4896670542536</v>
       </c>
       <c r="C29" t="n">
-        <v>735.9943838050791</v>
+        <v>735.994383805079</v>
       </c>
       <c r="D29" t="n">
-        <v>634.0580275649468</v>
+        <v>634.0580275649465</v>
       </c>
       <c r="E29" t="n">
-        <v>498.0744466587446</v>
+        <v>498.0744466587444</v>
       </c>
       <c r="F29" t="n">
-        <v>330.0501207238785</v>
+        <v>330.0501207238781</v>
       </c>
       <c r="G29" t="n">
         <v>146.1979261001473</v>
       </c>
       <c r="H29" t="n">
-        <v>34.60166673261141</v>
+        <v>34.60166673261145</v>
       </c>
       <c r="I29" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J29" t="n">
-        <v>185.1069238584295</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K29" t="n">
-        <v>372.3077652805103</v>
+        <v>253.1756670773799</v>
       </c>
       <c r="L29" t="n">
-        <v>414.2375700810911</v>
+        <v>529.5920871728117</v>
       </c>
       <c r="M29" t="n">
-        <v>724.2551319095585</v>
+        <v>839.6096490012791</v>
       </c>
       <c r="N29" t="n">
-        <v>785.619557535309</v>
+        <v>1144.006944492839</v>
       </c>
       <c r="O29" t="n">
-        <v>1049.21148695862</v>
+        <v>1173.112258621299</v>
       </c>
       <c r="P29" t="n">
-        <v>1264.391241871465</v>
+        <v>1278.503733625566</v>
       </c>
       <c r="Q29" t="n">
-        <v>1406.784697694218</v>
+        <v>1420.897189448319</v>
       </c>
       <c r="R29" t="n">
-        <v>1446.431480922303</v>
+        <v>1460.543972676405</v>
       </c>
       <c r="S29" t="n">
-        <v>1446.431480922303</v>
+        <v>1460.543972676405</v>
       </c>
       <c r="T29" t="n">
-        <v>1460.543972676404</v>
+        <v>1460.543972676405</v>
       </c>
       <c r="U29" t="n">
         <v>1447.111823320343</v>
@@ -6506,7 +6506,7 @@
         <v>1136.007317425255</v>
       </c>
       <c r="Y29" t="n">
-        <v>989.1079230273216</v>
+        <v>989.1079230273215</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48.5577094533033</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C30" t="n">
-        <v>48.5577094533033</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D30" t="n">
-        <v>48.5577094533033</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E30" t="n">
-        <v>48.5577094533033</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="F30" t="n">
-        <v>48.5577094533033</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="G30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="H30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="I30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="L30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="M30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="N30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="O30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="P30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="R30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="S30" t="n">
-        <v>63.57163963271237</v>
+        <v>63.57163963271246</v>
       </c>
       <c r="T30" t="n">
-        <v>63.57163963271237</v>
+        <v>63.57163963271246</v>
       </c>
       <c r="U30" t="n">
-        <v>63.19388002264089</v>
+        <v>63.19388002264095</v>
       </c>
       <c r="V30" t="n">
-        <v>59.36180532475588</v>
+        <v>59.36180532475591</v>
       </c>
       <c r="W30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X30" t="n">
-        <v>48.5577094533033</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y30" t="n">
-        <v>48.5577094533033</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="F31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="G31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="H31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="I31" t="n">
-        <v>100.0835122344485</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J31" t="n">
-        <v>143.8689892283175</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K31" t="n">
-        <v>143.8689892283175</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="L31" t="n">
-        <v>143.8689892283175</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="M31" t="n">
-        <v>143.8689892283175</v>
+        <v>53.00586581519946</v>
       </c>
       <c r="N31" t="n">
-        <v>143.8689892283175</v>
+        <v>53.00586581519946</v>
       </c>
       <c r="O31" t="n">
-        <v>143.8689892283175</v>
+        <v>143.8689892283176</v>
       </c>
       <c r="P31" t="n">
-        <v>143.8689892283175</v>
+        <v>143.8689892283176</v>
       </c>
       <c r="Q31" t="n">
-        <v>143.8689892283175</v>
+        <v>143.8689892283176</v>
       </c>
       <c r="R31" t="n">
-        <v>143.8689892283175</v>
+        <v>143.8689892283176</v>
       </c>
       <c r="S31" t="n">
-        <v>143.8689892283175</v>
+        <v>143.8689892283176</v>
       </c>
       <c r="T31" t="n">
-        <v>143.8689892283175</v>
+        <v>143.8689892283176</v>
       </c>
       <c r="U31" t="n">
-        <v>91.54359495331906</v>
+        <v>91.54359495331913</v>
       </c>
       <c r="V31" t="n">
-        <v>83.20637452912328</v>
+        <v>83.20637452912332</v>
       </c>
       <c r="W31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>850.4896670542533</v>
+        <v>850.4896670542536</v>
       </c>
       <c r="C32" t="n">
-        <v>735.9943838050789</v>
+        <v>735.994383805079</v>
       </c>
       <c r="D32" t="n">
-        <v>634.0580275649465</v>
+        <v>634.0580275649463</v>
       </c>
       <c r="E32" t="n">
-        <v>498.0744466587444</v>
+        <v>498.0744466587443</v>
       </c>
       <c r="F32" t="n">
-        <v>330.0501207238783</v>
+        <v>330.0501207238781</v>
       </c>
       <c r="G32" t="n">
-        <v>146.197926100147</v>
+        <v>146.1979261001475</v>
       </c>
       <c r="H32" t="n">
-        <v>34.60166673261141</v>
+        <v>34.60166673261154</v>
       </c>
       <c r="I32" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J32" t="n">
-        <v>185.1069238584295</v>
+        <v>185.1069238584294</v>
       </c>
       <c r="K32" t="n">
-        <v>409.0717114822813</v>
+        <v>185.1069238584294</v>
       </c>
       <c r="L32" t="n">
-        <v>685.4881315777133</v>
+        <v>227.0367286590102</v>
       </c>
       <c r="M32" t="n">
-        <v>878.6546853937641</v>
+        <v>486.7817919018021</v>
       </c>
       <c r="N32" t="n">
-        <v>1183.051980885324</v>
+        <v>791.1790873933624</v>
       </c>
       <c r="O32" t="n">
-        <v>1183.051980885324</v>
+        <v>1054.771016816673</v>
       </c>
       <c r="P32" t="n">
-        <v>1398.23173579817</v>
+        <v>1269.950771729518</v>
       </c>
       <c r="Q32" t="n">
-        <v>1398.23173579817</v>
+        <v>1412.344227552271</v>
       </c>
       <c r="R32" t="n">
-        <v>1437.878519026255</v>
+        <v>1451.991010780356</v>
       </c>
       <c r="S32" t="n">
-        <v>1446.431480922303</v>
+        <v>1460.543972676405</v>
       </c>
       <c r="T32" t="n">
-        <v>1460.543972676404</v>
+        <v>1460.543972676405</v>
       </c>
       <c r="U32" t="n">
         <v>1447.111823320343</v>
       </c>
       <c r="V32" t="n">
-        <v>1362.238473174225</v>
+        <v>1362.238473174226</v>
       </c>
       <c r="W32" t="n">
-        <v>1260.176557152739</v>
+        <v>1260.17655715274</v>
       </c>
       <c r="X32" t="n">
-        <v>1136.007317425254</v>
+        <v>1136.007317425255</v>
       </c>
       <c r="Y32" t="n">
-        <v>989.1079230273212</v>
+        <v>989.1079230273217</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="F33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="G33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="H33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="I33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="L33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="M33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="N33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="O33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="P33" t="n">
-        <v>39.03033656067169</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.03033656067169</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="R33" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="S33" t="n">
-        <v>63.57163963271237</v>
+        <v>63.57163963271272</v>
       </c>
       <c r="T33" t="n">
-        <v>63.57163963271237</v>
+        <v>63.57163963271272</v>
       </c>
       <c r="U33" t="n">
-        <v>63.19388002264089</v>
+        <v>63.19388002264113</v>
       </c>
       <c r="V33" t="n">
-        <v>59.36180532475588</v>
+        <v>59.361805324756</v>
       </c>
       <c r="W33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="F34" t="n">
-        <v>78.386364717335</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="G34" t="n">
-        <v>78.386364717335</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="H34" t="n">
-        <v>78.386364717335</v>
+        <v>99.41026061201882</v>
       </c>
       <c r="I34" t="n">
-        <v>78.386364717335</v>
+        <v>143.8689892283179</v>
       </c>
       <c r="J34" t="n">
-        <v>78.386364717335</v>
+        <v>143.8689892283179</v>
       </c>
       <c r="K34" t="n">
-        <v>78.386364717335</v>
+        <v>143.8689892283179</v>
       </c>
       <c r="L34" t="n">
-        <v>78.386364717335</v>
+        <v>143.8689892283179</v>
       </c>
       <c r="M34" t="n">
-        <v>78.386364717335</v>
+        <v>143.8689892283179</v>
       </c>
       <c r="N34" t="n">
-        <v>78.386364717335</v>
+        <v>143.8689892283179</v>
       </c>
       <c r="O34" t="n">
-        <v>78.386364717335</v>
+        <v>143.8689892283179</v>
       </c>
       <c r="P34" t="n">
-        <v>78.386364717335</v>
+        <v>143.8689892283179</v>
       </c>
       <c r="Q34" t="n">
-        <v>143.8689892283175</v>
+        <v>143.8689892283179</v>
       </c>
       <c r="R34" t="n">
-        <v>143.8689892283175</v>
+        <v>143.8689892283179</v>
       </c>
       <c r="S34" t="n">
-        <v>143.8689892283175</v>
+        <v>143.8689892283179</v>
       </c>
       <c r="T34" t="n">
-        <v>143.8689892283175</v>
+        <v>143.8689892283179</v>
       </c>
       <c r="U34" t="n">
-        <v>91.54359495331906</v>
+        <v>91.5435949533193</v>
       </c>
       <c r="V34" t="n">
-        <v>83.20637452912328</v>
+        <v>83.20637452912341</v>
       </c>
       <c r="W34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>761.1064616071301</v>
+        <v>761.1064616071305</v>
       </c>
       <c r="C35" t="n">
-        <v>660.0433277140172</v>
+        <v>660.0433277140177</v>
       </c>
       <c r="D35" t="n">
-        <v>571.5391208299466</v>
+        <v>571.5391208299468</v>
       </c>
       <c r="E35" t="n">
-        <v>448.9876892798059</v>
+        <v>448.9876892798063</v>
       </c>
       <c r="F35" t="n">
-        <v>294.3955127010017</v>
+        <v>294.3955127010022</v>
       </c>
       <c r="G35" t="n">
-        <v>123.9754674333324</v>
+        <v>123.9754674333325</v>
       </c>
       <c r="H35" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I35" t="n">
-        <v>33.69269639350468</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="J35" t="n">
-        <v>202.7535903822821</v>
+        <v>194.8722514106356</v>
       </c>
       <c r="K35" t="n">
-        <v>202.7535903822821</v>
+        <v>432.0018886183634</v>
       </c>
       <c r="L35" t="n">
-        <v>492.3348600615901</v>
+        <v>721.5831582976714</v>
       </c>
       <c r="M35" t="n">
-        <v>658.2712383207843</v>
+        <v>721.5831582976714</v>
       </c>
       <c r="N35" t="n">
-        <v>728.1819185174935</v>
+        <v>914.3681253373002</v>
       </c>
       <c r="O35" t="n">
-        <v>1004.93869752468</v>
+        <v>1191.124904344487</v>
       </c>
       <c r="P35" t="n">
-        <v>1233.283302021401</v>
+        <v>1191.124904344487</v>
       </c>
       <c r="Q35" t="n">
-        <v>1252.637294619889</v>
+        <v>1210.478896942974</v>
       </c>
       <c r="R35" t="n">
-        <v>1263.290529754934</v>
+        <v>1263.290529754935</v>
       </c>
       <c r="S35" t="n">
-        <v>1263.290529754934</v>
+        <v>1263.290529754935</v>
       </c>
       <c r="T35" t="n">
-        <v>1290.567871092911</v>
+        <v>1290.567871092912</v>
       </c>
       <c r="U35" t="n">
-        <v>1290.567871092911</v>
+        <v>1290.567871092912</v>
       </c>
       <c r="V35" t="n">
-        <v>1219.126670302855</v>
+        <v>1219.126670302856</v>
       </c>
       <c r="W35" t="n">
-        <v>1130.496903637431</v>
+        <v>1130.496903637432</v>
       </c>
       <c r="X35" t="n">
-        <v>1019.759813266008</v>
+        <v>1019.759813266009</v>
       </c>
       <c r="Y35" t="n">
-        <v>886.2925682241364</v>
+        <v>886.2925682241369</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="C36" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="D36" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="E36" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="F36" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="G36" t="n">
-        <v>42.53013393702436</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="H36" t="n">
-        <v>42.53013393702436</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I36" t="n">
-        <v>42.53013393702436</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="J36" t="n">
-        <v>42.53013393702436</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="K36" t="n">
-        <v>42.53013393702436</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="L36" t="n">
-        <v>42.53013393702436</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="M36" t="n">
-        <v>42.53013393702436</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="N36" t="n">
-        <v>42.53013393702436</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="O36" t="n">
-        <v>42.53013393702436</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="P36" t="n">
-        <v>42.53013393702436</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.53013393702436</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="R36" t="n">
-        <v>42.53013393702436</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="S36" t="n">
-        <v>42.53013393702436</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="T36" t="n">
-        <v>42.53013393702436</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="U36" t="n">
-        <v>42.53013393702436</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="V36" t="n">
-        <v>42.53013393702436</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="W36" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="X36" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Y36" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="C37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="D37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="E37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="F37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="G37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="H37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="J37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="K37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="L37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="M37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="N37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="O37" t="n">
-        <v>25.81135742185822</v>
+        <v>100.274408214207</v>
       </c>
       <c r="P37" t="n">
-        <v>79.19861399770033</v>
+        <v>100.274408214207</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.19861399770033</v>
+        <v>100.274408214207</v>
       </c>
       <c r="R37" t="n">
-        <v>79.19861399770033</v>
+        <v>100.274408214207</v>
       </c>
       <c r="S37" t="n">
-        <v>79.19861399770033</v>
+        <v>100.274408214207</v>
       </c>
       <c r="T37" t="n">
-        <v>105.2679480603286</v>
+        <v>100.274408214207</v>
       </c>
       <c r="U37" t="n">
-        <v>66.37470314139176</v>
+        <v>61.38116329527016</v>
       </c>
       <c r="V37" t="n">
-        <v>66.37470314139176</v>
+        <v>66.37470314139185</v>
       </c>
       <c r="W37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="X37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
     </row>
     <row r="38">
@@ -7148,64 +7148,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>761.1064616071307</v>
+        <v>761.1064616071305</v>
       </c>
       <c r="C38" t="n">
-        <v>660.0433277140178</v>
+        <v>660.0433277140177</v>
       </c>
       <c r="D38" t="n">
-        <v>571.539120829947</v>
+        <v>571.5391208299468</v>
       </c>
       <c r="E38" t="n">
-        <v>448.9876892798066</v>
+        <v>448.9876892798063</v>
       </c>
       <c r="F38" t="n">
         <v>294.3955127010022</v>
       </c>
       <c r="G38" t="n">
-        <v>123.9754674333324</v>
+        <v>123.9754674333325</v>
       </c>
       <c r="H38" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I38" t="n">
-        <v>33.69269639350471</v>
+        <v>33.69269639350464</v>
       </c>
       <c r="J38" t="n">
-        <v>202.7535903822822</v>
+        <v>202.753590382282</v>
       </c>
       <c r="K38" t="n">
-        <v>439.8832275900101</v>
+        <v>439.8832275900098</v>
       </c>
       <c r="L38" t="n">
-        <v>439.8832275900101</v>
+        <v>729.4644972693177</v>
       </c>
       <c r="M38" t="n">
-        <v>715.6406349809834</v>
+        <v>764.2749866753392</v>
       </c>
       <c r="N38" t="n">
-        <v>1033.20278005642</v>
+        <v>1060.480121394397</v>
       </c>
       <c r="O38" t="n">
-        <v>1033.20278005642</v>
+        <v>1060.480121394397</v>
       </c>
       <c r="P38" t="n">
-        <v>1033.20278005642</v>
+        <v>1060.480121394397</v>
       </c>
       <c r="Q38" t="n">
-        <v>1188.761085463049</v>
+        <v>1216.038426801026</v>
       </c>
       <c r="R38" t="n">
-        <v>1241.57271827501</v>
+        <v>1268.850059612988</v>
       </c>
       <c r="S38" t="n">
-        <v>1263.290529754935</v>
+        <v>1290.567871092912</v>
       </c>
       <c r="T38" t="n">
-        <v>1290.567871092911</v>
+        <v>1290.567871092912</v>
       </c>
       <c r="U38" t="n">
-        <v>1290.567871092911</v>
+        <v>1290.567871092912</v>
       </c>
       <c r="V38" t="n">
         <v>1219.126670302856</v>
@@ -7214,7 +7214,7 @@
         <v>1130.496903637432</v>
       </c>
       <c r="X38" t="n">
-        <v>1019.759813266008</v>
+        <v>1019.759813266009</v>
       </c>
       <c r="Y38" t="n">
         <v>886.2925682241369</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="C39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="D39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="E39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="F39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="G39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="H39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="J39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="K39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="L39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="M39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="N39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="O39" t="n">
-        <v>42.53013393702434</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="P39" t="n">
-        <v>42.53013393702434</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.53013393702434</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="R39" t="n">
-        <v>42.53013393702434</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="S39" t="n">
-        <v>42.53013393702434</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="T39" t="n">
-        <v>42.53013393702434</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="U39" t="n">
-        <v>42.53013393702434</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="V39" t="n">
-        <v>42.53013393702434</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="W39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="X39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Y39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="C40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="D40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="E40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="F40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="G40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="H40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="I40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="J40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="K40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="L40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="M40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="N40" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="O40" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="P40" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="R40" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="S40" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="T40" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="U40" t="n">
-        <v>66.37470314139175</v>
+        <v>66.37470314139185</v>
       </c>
       <c r="V40" t="n">
-        <v>66.37470314139175</v>
+        <v>66.37470314139185</v>
       </c>
       <c r="W40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="X40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>761.106461607131</v>
       </c>
       <c r="C41" t="n">
-        <v>660.0433277140181</v>
+        <v>660.043327714018</v>
       </c>
       <c r="D41" t="n">
         <v>571.5391208299473</v>
@@ -7397,40 +7397,40 @@
         <v>448.9876892798068</v>
       </c>
       <c r="F41" t="n">
-        <v>294.395512701002</v>
+        <v>294.3955127010023</v>
       </c>
       <c r="G41" t="n">
         <v>123.9754674333325</v>
       </c>
       <c r="H41" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I41" t="n">
-        <v>33.69269639350463</v>
+        <v>33.69269639350464</v>
       </c>
       <c r="J41" t="n">
-        <v>202.753590382282</v>
+        <v>33.69269639350464</v>
       </c>
       <c r="K41" t="n">
-        <v>347.7248931001685</v>
+        <v>114.4920968884686</v>
       </c>
       <c r="L41" t="n">
-        <v>347.7248931001685</v>
+        <v>404.0733665677765</v>
       </c>
       <c r="M41" t="n">
-        <v>667.1404411956642</v>
+        <v>438.8838559737979</v>
       </c>
       <c r="N41" t="n">
-        <v>737.0511213923733</v>
+        <v>756.4460010492342</v>
       </c>
       <c r="O41" t="n">
-        <v>804.8581755596988</v>
+        <v>1033.202780056421</v>
       </c>
       <c r="P41" t="n">
-        <v>1033.20278005642</v>
+        <v>1033.202780056421</v>
       </c>
       <c r="Q41" t="n">
-        <v>1188.761085463049</v>
+        <v>1188.76108546305</v>
       </c>
       <c r="R41" t="n">
         <v>1241.572718275011</v>
@@ -7445,10 +7445,10 @@
         <v>1290.567871092912</v>
       </c>
       <c r="V41" t="n">
-        <v>1219.126670302856</v>
+        <v>1219.126670302857</v>
       </c>
       <c r="W41" t="n">
-        <v>1130.496903637432</v>
+        <v>1130.496903637433</v>
       </c>
       <c r="X41" t="n">
         <v>1019.759813266009</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="C42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="D42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="E42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="F42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="G42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="H42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="J42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="K42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="L42" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="M42" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="N42" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="O42" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="P42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702444</v>
       </c>
       <c r="Q42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702444</v>
       </c>
       <c r="R42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702444</v>
       </c>
       <c r="S42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702444</v>
       </c>
       <c r="T42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702444</v>
       </c>
       <c r="U42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702444</v>
       </c>
       <c r="V42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702444</v>
       </c>
       <c r="W42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="X42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Y42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="C43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="D43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="E43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="F43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="G43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="H43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="J43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="K43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="L43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="M43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="N43" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="O43" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="P43" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="R43" t="n">
-        <v>105.2679480603287</v>
+        <v>71.45482543293201</v>
       </c>
       <c r="S43" t="n">
-        <v>105.2679480603287</v>
+        <v>74.20507415157886</v>
       </c>
       <c r="T43" t="n">
-        <v>105.2679480603287</v>
+        <v>100.274408214207</v>
       </c>
       <c r="U43" t="n">
-        <v>66.37470314139183</v>
+        <v>61.38116329527016</v>
       </c>
       <c r="V43" t="n">
-        <v>66.37470314139183</v>
+        <v>66.37470314139185</v>
       </c>
       <c r="W43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="X43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>761.1064616071311</v>
+        <v>761.1064616071308</v>
       </c>
       <c r="C44" t="n">
-        <v>660.0433277140182</v>
+        <v>660.0433277140178</v>
       </c>
       <c r="D44" t="n">
-        <v>571.539120829947</v>
+        <v>571.5391208299468</v>
       </c>
       <c r="E44" t="n">
-        <v>448.9876892798065</v>
+        <v>448.9876892798059</v>
       </c>
       <c r="F44" t="n">
-        <v>294.3955127010021</v>
+        <v>294.3955127010029</v>
       </c>
       <c r="G44" t="n">
-        <v>123.9754674333325</v>
+        <v>123.9754674333326</v>
       </c>
       <c r="H44" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I44" t="n">
-        <v>33.69269639350466</v>
+        <v>33.69269639350456</v>
       </c>
       <c r="J44" t="n">
-        <v>94.27472981709329</v>
+        <v>202.7535903822819</v>
       </c>
       <c r="K44" t="n">
-        <v>94.27472981709329</v>
+        <v>439.8832275900096</v>
       </c>
       <c r="L44" t="n">
-        <v>383.8559994964012</v>
+        <v>729.4644972693175</v>
       </c>
       <c r="M44" t="n">
-        <v>418.6664889024227</v>
+        <v>783.6757369949795</v>
       </c>
       <c r="N44" t="n">
-        <v>588.7304736820915</v>
+        <v>820.6710831216396</v>
       </c>
       <c r="O44" t="n">
-        <v>847.0165732366142</v>
+        <v>1033.202780056421</v>
       </c>
       <c r="P44" t="n">
-        <v>1075.361177733336</v>
+        <v>1033.202780056421</v>
       </c>
       <c r="Q44" t="n">
-        <v>1230.919483139965</v>
+        <v>1188.76108546305</v>
       </c>
       <c r="R44" t="n">
-        <v>1241.57271827501</v>
+        <v>1241.572718275011</v>
       </c>
       <c r="S44" t="n">
         <v>1263.290529754935</v>
@@ -7691,7 +7691,7 @@
         <v>1019.759813266009</v>
       </c>
       <c r="Y44" t="n">
-        <v>886.2925682241374</v>
+        <v>886.2925682241372</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="C45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="D45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="E45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="F45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="G45" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="H45" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I45" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="J45" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="K45" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="L45" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="M45" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="N45" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="O45" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="P45" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="R45" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="S45" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702452</v>
       </c>
       <c r="T45" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702452</v>
       </c>
       <c r="U45" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702452</v>
       </c>
       <c r="V45" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702452</v>
       </c>
       <c r="W45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="X45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="C46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="D46" t="n">
-        <v>105.2679480603286</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="E46" t="n">
-        <v>105.2679480603286</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="F46" t="n">
-        <v>105.2679480603286</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="G46" t="n">
-        <v>105.2679480603286</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="H46" t="n">
-        <v>105.2679480603286</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I46" t="n">
-        <v>105.2679480603286</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="J46" t="n">
-        <v>105.2679480603286</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="K46" t="n">
-        <v>105.2679480603286</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2679480603286</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="M46" t="n">
-        <v>105.2679480603286</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="N46" t="n">
-        <v>105.2679480603286</v>
+        <v>105.2679480603289</v>
       </c>
       <c r="O46" t="n">
-        <v>105.2679480603286</v>
+        <v>105.2679480603289</v>
       </c>
       <c r="P46" t="n">
-        <v>105.2679480603286</v>
+        <v>105.2679480603289</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.2679480603286</v>
+        <v>105.2679480603289</v>
       </c>
       <c r="R46" t="n">
-        <v>105.2679480603286</v>
+        <v>105.2679480603289</v>
       </c>
       <c r="S46" t="n">
-        <v>105.2679480603286</v>
+        <v>105.2679480603289</v>
       </c>
       <c r="T46" t="n">
-        <v>105.2679480603286</v>
+        <v>105.2679480603289</v>
       </c>
       <c r="U46" t="n">
-        <v>66.37470314139181</v>
+        <v>66.37470314139193</v>
       </c>
       <c r="V46" t="n">
-        <v>66.37470314139181</v>
+        <v>66.37470314139193</v>
       </c>
       <c r="W46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="X46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185824</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.016860097736533</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>210.0462273461148</v>
+        <v>37.73217453057921</v>
       </c>
       <c r="L11" t="n">
-        <v>228.2911288462871</v>
+        <v>161.8619280734547</v>
       </c>
       <c r="M11" t="n">
-        <v>257.4849097117377</v>
+        <v>6.94934531999084</v>
       </c>
       <c r="N11" t="n">
-        <v>6.612310357655797</v>
+        <v>29.84179676130044</v>
       </c>
       <c r="O11" t="n">
-        <v>34.41704868367442</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P11" t="n">
-        <v>2.591255098870128</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.16732038378391</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8766,13 +8766,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>125.349092662339</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>122.4225604485056</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>125.0272939704076</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8848,13 +8848,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>81.3123890271394</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
         <v>2.854941876293061</v>
       </c>
       <c r="M14" t="n">
-        <v>257.4849097117377</v>
+        <v>257.4849097117375</v>
       </c>
       <c r="N14" t="n">
-        <v>217.0838881141324</v>
+        <v>255.2779837312943</v>
       </c>
       <c r="O14" t="n">
-        <v>34.41704868367436</v>
+        <v>4.07184257320637</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>45.08528049474324</v>
       </c>
       <c r="Q14" t="n">
-        <v>47.6613457796572</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R14" t="n">
-        <v>13.95596428624998</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>88.47975120927973</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>122.4225604485055</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>125.0272939704075</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M26" t="n">
-        <v>291.2847697033555</v>
+        <v>134.5310038522985</v>
       </c>
       <c r="N26" t="n">
-        <v>93.78838375461487</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O26" t="n">
         <v>246.758517458259</v>
@@ -9896,7 +9896,7 @@
         <v>137.5801139476182</v>
       </c>
       <c r="R26" t="n">
-        <v>2.536984291747782</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>135.6762311797747</v>
@@ -9960,19 +9960,19 @@
         <v>125.3490926623389</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>122.4225604485055</v>
       </c>
       <c r="N27" t="n">
         <v>107.9066134679082</v>
       </c>
       <c r="O27" t="n">
-        <v>126.0954398958495</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>159.7351325352401</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10033,25 +10033,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N28" t="n">
         <v>111.3378805152112</v>
       </c>
       <c r="O28" t="n">
-        <v>24.03533975926376</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q28" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N29" t="n">
-        <v>37.91305967976396</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O29" t="n">
         <v>246.758517458259</v>
@@ -10185,31 +10185,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>135.6762311797747</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>125.3490926623389</v>
       </c>
       <c r="M30" t="n">
         <v>122.4225604485055</v>
       </c>
       <c r="N30" t="n">
-        <v>107.9066134679082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>126.0954398958495</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>125.0272939704075</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>54.85764828763662</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10273,16 +10273,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M31" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M32" t="n">
-        <v>173.2534484786923</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N32" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O32" t="n">
-        <v>217.3592102577949</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P32" t="n">
         <v>208.5255628951208</v>
@@ -10428,13 +10428,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>135.6762311797747</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>122.4225604485055</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>107.9066134679082</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>134.9459375129768</v>
+        <v>66.4183294955577</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K34" t="n">
         <v>69.16996059133484</v>
@@ -10513,7 +10513,7 @@
         <v>105.2836065989273</v>
       </c>
       <c r="M34" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>111.3378805152112</v>
@@ -10522,10 +10522,10 @@
         <v>105.6509998050918</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,16 +10586,16 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>291.2847697033555</v>
+        <v>214.9908843158643</v>
       </c>
       <c r="N35" t="n">
-        <v>283.4008070189657</v>
+        <v>157.363253447443</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>90.18335367878487</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10741,13 +10741,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2836065989273</v>
+        <v>9.746747253817716</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10759,10 +10759,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10826,16 +10826,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
-        <v>243.640003257124</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>213.1253938805733</v>
       </c>
       <c r="P38" t="n">
         <v>208.5255628951208</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10908,22 +10908,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>122.4225604485055</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>142.9830929414719</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10996,10 +10996,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461148</v>
+        <v>52.13689733322196</v>
       </c>
       <c r="L41" t="n">
-        <v>228.291128846287</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>287.4798572620952</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O41" t="n">
-        <v>35.6981893371873</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
         <v>208.5255628951208</v>
@@ -11142,13 +11142,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>125.3490926623389</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>107.9066134679082</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>45.55062137507905</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11221,19 +11221,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11303,10 +11303,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>269.7497123215836</v>
       </c>
       <c r="N44" t="n">
-        <v>134.4127663161704</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>246.758517458259</v>
@@ -11318,7 +11318,7 @@
         <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>135.6762311797747</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>125.3490926623389</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>126.0954398958495</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11458,19 +11458,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P46" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>124.7693104111849</v>
       </c>
       <c r="D11" t="n">
-        <v>73.88587696547259</v>
+        <v>112.3359726722334</v>
       </c>
       <c r="E11" t="n">
         <v>146.0427250916422</v>
@@ -23270,13 +23270,13 @@
         <v>177.7630626700196</v>
       </c>
       <c r="G11" t="n">
-        <v>150.9386272761228</v>
+        <v>193.4326526719961</v>
       </c>
       <c r="H11" t="n">
-        <v>79.40525137248929</v>
+        <v>79.40525137248946</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>16.75585940079468</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>95.4435966391581</v>
+        <v>52.94957124328494</v>
       </c>
       <c r="W11" t="n">
-        <v>112.460276855773</v>
+        <v>69.96625145989981</v>
       </c>
       <c r="X11" t="n">
-        <v>134.3465273247122</v>
+        <v>121.6345976130303</v>
       </c>
       <c r="Y11" t="n">
         <v>156.849380448456</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>20.72709493087732</v>
+        <v>20.7270949308775</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>22.38049472346808</v>
+        <v>22.38049472346825</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.1570280119661</v>
+        <v>148.6510534078394</v>
       </c>
       <c r="C14" t="n">
-        <v>82.27528501531157</v>
+        <v>124.7693104111849</v>
       </c>
       <c r="D14" t="n">
         <v>112.3359726722334</v>
@@ -23510,10 +23510,10 @@
         <v>193.4326526719961</v>
       </c>
       <c r="H14" t="n">
-        <v>121.8992767683626</v>
+        <v>109.1873470566808</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>16.75585940079466</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>4.043929689112669</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>95.4435966391581</v>
       </c>
       <c r="W14" t="n">
-        <v>69.96625145989964</v>
+        <v>69.96625145989981</v>
       </c>
       <c r="X14" t="n">
-        <v>134.3465273247122</v>
+        <v>91.85250192883905</v>
       </c>
       <c r="Y14" t="n">
-        <v>156.849380448456</v>
+        <v>114.3553550525828</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>20.72709493087732</v>
+        <v>20.7270949308775</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>22.38049472346808</v>
+        <v>22.38049472346825</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>33.58244823586926</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.80876041837325</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G17" t="n">
-        <v>38.47835042034978</v>
+        <v>38.47835042034995</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23795,10 +23795,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>21.88625046893924</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>22.28332011790534</v>
+        <v>35.25799342684113</v>
       </c>
     </row>
     <row r="18">
@@ -23975,13 +23975,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>33.58244823586926</v>
+        <v>11.47666476109197</v>
       </c>
       <c r="F20" t="n">
-        <v>43.19700233946918</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G20" t="n">
-        <v>38.47835042034978</v>
+        <v>38.47835042034995</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88625046893926</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.895078196809663</v>
+        <v>1.895078196809834</v>
       </c>
     </row>
     <row r="21">
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.571109639633562</v>
+        <v>3.571109639633733</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>668515.6090812454</v>
+        <v>668515.6090812453</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>668515.6090812454</v>
+        <v>668515.6090812453</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810091.9922958591</v>
+        <v>810091.9922958595</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810091.9922958593</v>
+        <v>810091.9922958594</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810091.9922958593</v>
+        <v>810091.9922958596</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>786607.6058285169</v>
+        <v>786607.6058285171</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>786607.6058285169</v>
+        <v>786607.6058285171</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>786607.6058285171</v>
+        <v>786607.6058285165</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>837835.3954176367</v>
+      </c>
+      <c r="C2" t="n">
         <v>837835.3954176366</v>
       </c>
-      <c r="C2" t="n">
-        <v>837835.3954176364</v>
-      </c>
       <c r="D2" t="n">
-        <v>837835.3954176367</v>
+        <v>837835.3954176366</v>
       </c>
       <c r="E2" t="n">
-        <v>732639.7472099285</v>
+        <v>732639.7472099282</v>
       </c>
       <c r="F2" t="n">
-        <v>732639.7472099279</v>
+        <v>732639.7472099282</v>
       </c>
       <c r="G2" t="n">
         <v>829018.4824306114</v>
       </c>
       <c r="H2" t="n">
-        <v>829018.4824306114</v>
+        <v>829018.4824306113</v>
       </c>
       <c r="I2" t="n">
-        <v>839262.5741046601</v>
+        <v>839262.5741046603</v>
       </c>
       <c r="J2" t="n">
         <v>839532.6214156096</v>
       </c>
       <c r="K2" t="n">
-        <v>839532.6214156098</v>
+        <v>839532.6214156095</v>
       </c>
       <c r="L2" t="n">
-        <v>839532.6214156097</v>
+        <v>839532.6214156096</v>
       </c>
       <c r="M2" t="n">
+        <v>839532.6214156093</v>
+      </c>
+      <c r="N2" t="n">
         <v>839532.6214156089</v>
-      </c>
-      <c r="N2" t="n">
-        <v>839532.6214156088</v>
       </c>
       <c r="O2" t="n">
         <v>839532.6214156091</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9282.56837564884</v>
+        <v>9282.568375648845</v>
       </c>
       <c r="J3" t="n">
-        <v>174799.9769962072</v>
+        <v>174799.9769962071</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>89968.22148461838</v>
+        <v>89968.22148461831</v>
       </c>
       <c r="M3" t="n">
-        <v>10638.26229000083</v>
+        <v>10638.26229000088</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>99515.91208697844</v>
+        <v>99515.91208697839</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,10 +26430,10 @@
         <v>412276.9994310428</v>
       </c>
       <c r="G4" t="n">
-        <v>465631.4922360422</v>
+        <v>465631.4922360421</v>
       </c>
       <c r="H4" t="n">
-        <v>465631.4922360421</v>
+        <v>465631.492236042</v>
       </c>
       <c r="I4" t="n">
         <v>471927.6879885274</v>
@@ -26445,7 +26445,7 @@
         <v>482258.3294266115</v>
       </c>
       <c r="L4" t="n">
-        <v>482258.3294266116</v>
+        <v>482258.3294266115</v>
       </c>
       <c r="M4" t="n">
         <v>480027.621771974</v>
@@ -26457,7 +26457,7 @@
         <v>480027.621771974</v>
       </c>
       <c r="P4" t="n">
-        <v>480027.621771974</v>
+        <v>480027.6217719739</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23575.06998390379</v>
+        <v>23575.06998390378</v>
       </c>
       <c r="F5" t="n">
-        <v>23575.06998390379</v>
+        <v>23575.06998390378</v>
       </c>
       <c r="G5" t="n">
-        <v>33029.49299889177</v>
+        <v>33029.49299889176</v>
       </c>
       <c r="H5" t="n">
-        <v>33029.49299889177</v>
+        <v>33029.49299889176</v>
       </c>
       <c r="I5" t="n">
-        <v>35151.85323835932</v>
+        <v>35151.85323835931</v>
       </c>
       <c r="J5" t="n">
         <v>44151.68385367384</v>
@@ -26500,16 +26500,16 @@
         <v>44151.68385367384</v>
       </c>
       <c r="M5" t="n">
-        <v>42685.98220017734</v>
+        <v>42685.98220017735</v>
       </c>
       <c r="N5" t="n">
         <v>42685.98220017735</v>
       </c>
       <c r="O5" t="n">
+        <v>42685.98220017736</v>
+      </c>
+      <c r="P5" t="n">
         <v>42685.98220017734</v>
-      </c>
-      <c r="P5" t="n">
-        <v>42685.98220017735</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>300830.0496807568</v>
+        <v>300825.5832965517</v>
       </c>
       <c r="C6" t="n">
-        <v>300830.0496807566</v>
+        <v>300825.5832965516</v>
       </c>
       <c r="D6" t="n">
-        <v>300830.0496807569</v>
+        <v>300825.5832965516</v>
       </c>
       <c r="E6" t="n">
-        <v>28598.18204167374</v>
+        <v>28316.88500429027</v>
       </c>
       <c r="F6" t="n">
-        <v>296787.6777949813</v>
+        <v>296506.3807575983</v>
       </c>
       <c r="G6" t="n">
-        <v>240389.2757110591</v>
+        <v>240361.6069242565</v>
       </c>
       <c r="H6" t="n">
-        <v>330357.4971956775</v>
+        <v>330329.8284088749</v>
       </c>
       <c r="I6" t="n">
-        <v>322900.4645021245</v>
+        <v>322899.7538513065</v>
       </c>
       <c r="J6" t="n">
-        <v>138322.631139117</v>
+        <v>138322.6311391171</v>
       </c>
       <c r="K6" t="n">
-        <v>313122.6081353244</v>
+        <v>313122.608135324</v>
       </c>
       <c r="L6" t="n">
-        <v>223154.3866507059</v>
+        <v>223154.386650706</v>
       </c>
       <c r="M6" t="n">
-        <v>306180.7551534568</v>
+        <v>306180.755153457</v>
       </c>
       <c r="N6" t="n">
-        <v>316819.0174434574</v>
+        <v>316819.0174434576</v>
       </c>
       <c r="O6" t="n">
-        <v>217303.1053564794</v>
+        <v>217303.1053564793</v>
       </c>
       <c r="P6" t="n">
-        <v>316819.0174434578</v>
+        <v>316819.0174434579</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>337.8964638257669</v>
       </c>
       <c r="J2" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="K2" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="L2" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="M2" t="n">
         <v>250.1529948269971</v>
@@ -26725,7 +26725,7 @@
         <v>250.1529948269971</v>
       </c>
       <c r="P2" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="I4" t="n">
-        <v>77.40126617658957</v>
+        <v>77.40126617658942</v>
       </c>
       <c r="J4" t="n">
-        <v>365.135993169101</v>
+        <v>365.1359931691011</v>
       </c>
       <c r="K4" t="n">
-        <v>365.135993169101</v>
+        <v>365.1359931691011</v>
       </c>
       <c r="L4" t="n">
-        <v>365.135993169101</v>
+        <v>365.1359931691011</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6419677732277</v>
+        <v>322.641967773228</v>
       </c>
       <c r="N4" t="n">
-        <v>322.6419677732279</v>
+        <v>322.641967773228</v>
       </c>
       <c r="O4" t="n">
-        <v>322.6419677732279</v>
+        <v>322.641967773228</v>
       </c>
       <c r="P4" t="n">
-        <v>322.6419677732279</v>
+        <v>322.641967773228</v>
       </c>
     </row>
   </sheetData>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>124.3948901087231</v>
+        <v>124.394890108723</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>112.460276855773</v>
+        <v>112.4602768557729</v>
       </c>
       <c r="M2" t="n">
-        <v>13.29782786250104</v>
+        <v>13.29782786250109</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.90724078071623</v>
+        <v>34.90724078071625</v>
       </c>
       <c r="J4" t="n">
-        <v>287.7347269925115</v>
+        <v>287.7347269925117</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>124.3948901087231</v>
+        <v>124.394890108723</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,28 +28114,28 @@
         <v>225.4361869699939</v>
       </c>
       <c r="K11" t="n">
-        <v>10.6281087585852</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>66.42920077283233</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="N11" t="n">
         <v>225.4361869699939</v>
       </c>
       <c r="O11" t="n">
-        <v>225.4361869699939</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>225.4361869699939</v>
+        <v>19.50187917374327</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.4361869699939</v>
+        <v>93.02339340615958</v>
       </c>
       <c r="R11" t="n">
-        <v>218.3204672631709</v>
+        <v>196.8079111785513</v>
       </c>
       <c r="S11" t="n">
         <v>225.4361869699939</v>
@@ -28175,13 +28175,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>198.9938796353343</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>191.2550379904893</v>
+        <v>148.761012594616</v>
       </c>
       <c r="H12" t="n">
         <v>125.893992481459</v>
@@ -28190,13 +28190,13 @@
         <v>114.48982318888</v>
       </c>
       <c r="J12" t="n">
-        <v>135.7323687962715</v>
+        <v>54.02537789568661</v>
       </c>
       <c r="K12" t="n">
         <v>135.6762311797748</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>152.5154004578738</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -28208,7 +28208,7 @@
         <v>126.0954398958496</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>167.5213193662807</v>
       </c>
       <c r="Q12" t="n">
         <v>145.0940204505214</v>
@@ -28257,7 +28257,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>171.1742831720017</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.7145309437669</v>
@@ -28272,25 +28272,25 @@
         <v>143.0084423346752</v>
       </c>
       <c r="K13" t="n">
-        <v>180.292165147604</v>
+        <v>68.62817916039587</v>
       </c>
       <c r="L13" t="n">
-        <v>34.19696075465785</v>
+        <v>139.4805673535851</v>
       </c>
       <c r="M13" t="n">
-        <v>143.0474437998772</v>
+        <v>27.37318353055646</v>
       </c>
       <c r="N13" t="n">
-        <v>172.457108986466</v>
+        <v>129.9630835905926</v>
       </c>
       <c r="O13" t="n">
-        <v>145.0742342239726</v>
+        <v>187.5682596198458</v>
       </c>
       <c r="P13" t="n">
-        <v>147.6265796099167</v>
+        <v>190.1206050057899</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.3688647731045</v>
+        <v>201.3426499431242</v>
       </c>
       <c r="R13" t="n">
         <v>204.0484816844983</v>
@@ -28299,7 +28299,7 @@
         <v>225.4361869699939</v>
       </c>
       <c r="T13" t="n">
-        <v>223.8203341576757</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="U13" t="n">
         <v>225.4361869699939</v>
@@ -28348,10 +28348,10 @@
         <v>225.4361869699939</v>
       </c>
       <c r="J14" t="n">
-        <v>225.4361869699939</v>
+        <v>107.6466326447177</v>
       </c>
       <c r="K14" t="n">
-        <v>220.6743361046999</v>
+        <v>10.62810875858515</v>
       </c>
       <c r="L14" t="n">
         <v>225.4361869699939</v>
@@ -28366,10 +28366,10 @@
         <v>225.4361869699939</v>
       </c>
       <c r="P14" t="n">
-        <v>19.50187917374321</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.4361869699939</v>
+        <v>93.02339340615956</v>
       </c>
       <c r="R14" t="n">
         <v>225.4361869699939</v>
@@ -28421,22 +28421,22 @@
         <v>148.761012594616</v>
       </c>
       <c r="H15" t="n">
-        <v>125.893992481459</v>
+        <v>153.0603002769938</v>
       </c>
       <c r="I15" t="n">
         <v>114.48982318888</v>
       </c>
       <c r="J15" t="n">
-        <v>54.02537789568659</v>
+        <v>135.7323687962715</v>
       </c>
       <c r="K15" t="n">
-        <v>135.6762311797747</v>
+        <v>178.1702565756479</v>
       </c>
       <c r="L15" t="n">
-        <v>36.86934145305921</v>
+        <v>125.3490926623389</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>122.4225604485055</v>
       </c>
       <c r="N15" t="n">
         <v>107.9066134679082</v>
@@ -28445,16 +28445,16 @@
         <v>126.0954398958495</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>125.0272939704075</v>
       </c>
       <c r="Q15" t="n">
         <v>145.0940204505213</v>
       </c>
       <c r="R15" t="n">
-        <v>207.7306109707865</v>
+        <v>165.2365855749132</v>
       </c>
       <c r="S15" t="n">
-        <v>219.0618727477939</v>
+        <v>191.8955649522593</v>
       </c>
       <c r="T15" t="n">
         <v>215.0370598435168</v>
@@ -28488,13 +28488,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>187.676675646584</v>
+        <v>167.519284236122</v>
       </c>
       <c r="E16" t="n">
-        <v>184.1701666080983</v>
+        <v>184.1701666080982</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>181.4209076143198</v>
       </c>
       <c r="G16" t="n">
         <v>168.7145309437669</v>
@@ -28521,22 +28521,22 @@
         <v>129.9630835905926</v>
       </c>
       <c r="O16" t="n">
-        <v>39.42323441888078</v>
+        <v>145.0742342239726</v>
       </c>
       <c r="P16" t="n">
         <v>147.6265796099167</v>
       </c>
       <c r="Q16" t="n">
-        <v>181.5707974699469</v>
+        <v>170.7111018018875</v>
       </c>
       <c r="R16" t="n">
-        <v>225.4361869699939</v>
+        <v>204.0484816844983</v>
       </c>
       <c r="S16" t="n">
         <v>225.4361869699939</v>
       </c>
       <c r="T16" t="n">
-        <v>223.8203341576757</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="U16" t="n">
         <v>225.4361869699939</v>
@@ -28551,7 +28551,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.1412728141684</v>
+        <v>225.4361869699939</v>
       </c>
     </row>
     <row r="17">
@@ -28585,13 +28585,13 @@
         <v>242.1920463707886</v>
       </c>
       <c r="J17" t="n">
-        <v>231.4530470677304</v>
+        <v>231.4530470677302</v>
       </c>
       <c r="K17" t="n">
-        <v>220.6743361046999</v>
+        <v>263.168361500573</v>
       </c>
       <c r="L17" t="n">
-        <v>228.291128846287</v>
+        <v>252.0515437065201</v>
       </c>
       <c r="M17" t="n">
         <v>214.9908843158643</v>
@@ -28609,19 +28609,19 @@
         <v>230.6035073537778</v>
       </c>
       <c r="R17" t="n">
-        <v>281.8861766521172</v>
+        <v>239.3921512562439</v>
       </c>
       <c r="S17" t="n">
-        <v>268.9929065907904</v>
+        <v>270.7098369098154</v>
       </c>
       <c r="T17" t="n">
-        <v>265.0941501845099</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U17" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -28819,16 +28819,16 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I20" t="n">
-        <v>282.9691414476367</v>
+        <v>242.1920463707886</v>
       </c>
       <c r="J20" t="n">
         <v>188.9590216718571</v>
       </c>
       <c r="K20" t="n">
-        <v>220.6743361046999</v>
+        <v>263.168361500573</v>
       </c>
       <c r="L20" t="n">
-        <v>228.291128846287</v>
+        <v>269.068223923135</v>
       </c>
       <c r="M20" t="n">
         <v>214.9908843158643</v>
@@ -28837,25 +28837,25 @@
         <v>212.7839583354211</v>
       </c>
       <c r="O20" t="n">
-        <v>259.8532356536683</v>
+        <v>217.3592102577949</v>
       </c>
       <c r="P20" t="n">
         <v>228.027442068864</v>
       </c>
       <c r="Q20" t="n">
-        <v>273.0975327496511</v>
+        <v>230.6035073537778</v>
       </c>
       <c r="R20" t="n">
-        <v>239.3921512562439</v>
+        <v>281.8861766521171</v>
       </c>
       <c r="S20" t="n">
-        <v>228.2158115139422</v>
+        <v>270.7098369098154</v>
       </c>
       <c r="T20" t="n">
         <v>222.6001247886366</v>
       </c>
       <c r="U20" t="n">
-        <v>292.6470202228704</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -29056,7 +29056,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I23" t="n">
-        <v>242.1920463707886</v>
+        <v>319.593312547378</v>
       </c>
       <c r="J23" t="n">
         <v>188.9590216718571</v>
@@ -29074,28 +29074,28 @@
         <v>212.7839583354211</v>
       </c>
       <c r="O23" t="n">
-        <v>217.3592102577949</v>
+        <v>274.6164723318467</v>
       </c>
       <c r="P23" t="n">
-        <v>228.027442068864</v>
+        <v>305.4287082454534</v>
       </c>
       <c r="Q23" t="n">
-        <v>230.6035073537778</v>
+        <v>308.0047735303672</v>
       </c>
       <c r="R23" t="n">
-        <v>313.6660935469106</v>
+        <v>239.3921512562439</v>
       </c>
       <c r="S23" t="n">
-        <v>305.6170776905318</v>
+        <v>228.2158115139422</v>
       </c>
       <c r="T23" t="n">
-        <v>300.0013909652262</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U23" t="n">
-        <v>327.5542610035866</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="C26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="D26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="E26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="F26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="G26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="H26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="I26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="J26" t="n">
-        <v>236.8551669644961</v>
+        <v>79.38441504035325</v>
       </c>
       <c r="K26" t="n">
-        <v>175.2524440313278</v>
+        <v>236.855166964496</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>236.855166964496</v>
       </c>
       <c r="M26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="N26" t="n">
-        <v>236.8551669644961</v>
+        <v>63.00937157768207</v>
       </c>
       <c r="O26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="P26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="Q26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="R26" t="n">
-        <v>236.8551669644961</v>
+        <v>196.8079111785513</v>
       </c>
       <c r="S26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="T26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="U26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
     </row>
     <row r="27">
@@ -29372,10 +29372,10 @@
         <v>125.893992481459</v>
       </c>
       <c r="I27" t="n">
-        <v>107.928339036597</v>
+        <v>114.48982318888</v>
       </c>
       <c r="J27" t="n">
-        <v>54.02537789568659</v>
+        <v>135.7323687962715</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29384,22 +29384,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>122.4225604485055</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>126.0954398958495</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>125.0272939704075</v>
       </c>
       <c r="Q27" t="n">
-        <v>145.0940204505213</v>
+        <v>8.963937997691115</v>
       </c>
       <c r="R27" t="n">
-        <v>165.2365855749132</v>
+        <v>199.9444241397462</v>
       </c>
       <c r="S27" t="n">
         <v>191.8955649522593</v>
@@ -29408,13 +29408,13 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U27" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V27" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W27" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -29436,7 +29436,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>236.855166964496</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29457,25 +29457,25 @@
         <v>143.0084423346752</v>
       </c>
       <c r="K28" t="n">
-        <v>68.62817916039586</v>
+        <v>137.7981397517307</v>
       </c>
       <c r="L28" t="n">
-        <v>34.19696075465782</v>
+        <v>150.5894903327672</v>
       </c>
       <c r="M28" t="n">
-        <v>143.0474437998772</v>
+        <v>27.37318353055643</v>
       </c>
       <c r="N28" t="n">
         <v>18.62520307538138</v>
       </c>
       <c r="O28" t="n">
-        <v>236.8551669644961</v>
+        <v>145.0742342239726</v>
       </c>
       <c r="P28" t="n">
-        <v>147.6265796099167</v>
+        <v>60.14232658241811</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.3688647731045</v>
+        <v>170.7111018018875</v>
       </c>
       <c r="R28" t="n">
         <v>204.0484816844983</v>
@@ -29484,16 +29484,16 @@
         <v>235.6777742193615</v>
       </c>
       <c r="T28" t="n">
-        <v>223.8203341576757</v>
+        <v>236.855166964496</v>
       </c>
       <c r="U28" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V28" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W28" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="C29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="D29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="E29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="F29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="G29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="H29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="I29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="J29" t="n">
-        <v>236.8551669644961</v>
+        <v>79.38441504035325</v>
       </c>
       <c r="K29" t="n">
-        <v>199.719867770788</v>
+        <v>236.855166964496</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>236.855166964496</v>
       </c>
       <c r="M29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="N29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="O29" t="n">
-        <v>236.8551669644961</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>236.8551669644961</v>
+        <v>125.9579145315889</v>
       </c>
       <c r="Q29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="R29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="S29" t="n">
         <v>228.2158115139422</v>
       </c>
       <c r="T29" t="n">
-        <v>236.8551669644961</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
     </row>
     <row r="30">
@@ -29603,58 +29603,58 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>163.9265986344231</v>
+        <v>148.761012594616</v>
       </c>
       <c r="H30" t="n">
         <v>125.893992481459</v>
       </c>
       <c r="I30" t="n">
-        <v>107.928339036597</v>
+        <v>114.48982318888</v>
       </c>
       <c r="J30" t="n">
         <v>135.7323687962715</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>135.6762311797747</v>
       </c>
       <c r="L30" t="n">
-        <v>125.3490926623389</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>107.9066134679082</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>126.0954398958495</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.963937997691115</v>
+        <v>90.23637216288471</v>
       </c>
       <c r="R30" t="n">
         <v>165.2365855749132</v>
       </c>
       <c r="S30" t="n">
-        <v>191.8955649522593</v>
+        <v>226.603403517092</v>
       </c>
       <c r="T30" t="n">
         <v>215.0370598435168</v>
       </c>
       <c r="U30" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V30" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W30" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X30" t="n">
-        <v>236.8551669644961</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -29688,25 +29688,25 @@
         <v>165.9467011478387</v>
       </c>
       <c r="I31" t="n">
-        <v>236.8551669644961</v>
+        <v>165.2666490039704</v>
       </c>
       <c r="J31" t="n">
-        <v>187.2361968739368</v>
+        <v>143.0084423346752</v>
       </c>
       <c r="K31" t="n">
         <v>137.7981397517307</v>
       </c>
       <c r="L31" t="n">
-        <v>139.4805673535851</v>
+        <v>34.19696075465782</v>
       </c>
       <c r="M31" t="n">
-        <v>27.37318353055643</v>
+        <v>167.0827835591412</v>
       </c>
       <c r="N31" t="n">
-        <v>18.62520307538138</v>
+        <v>129.9630835905926</v>
       </c>
       <c r="O31" t="n">
-        <v>39.42323441888078</v>
+        <v>236.855166964496</v>
       </c>
       <c r="P31" t="n">
         <v>147.6265796099167</v>
@@ -29724,13 +29724,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U31" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V31" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W31" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="C32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="D32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="E32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="F32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="G32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="H32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="I32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="J32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="K32" t="n">
-        <v>236.8551669644961</v>
+        <v>10.62810875858515</v>
       </c>
       <c r="L32" t="n">
-        <v>236.8551669644961</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>236.8551669644961</v>
+        <v>186.0748653628037</v>
       </c>
       <c r="N32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>236.855166964496</v>
       </c>
       <c r="P32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="Q32" t="n">
-        <v>93.02339340615956</v>
+        <v>236.855166964496</v>
       </c>
       <c r="R32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="S32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="T32" t="n">
-        <v>236.8551669644961</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
     </row>
     <row r="33">
@@ -29852,13 +29852,13 @@
         <v>135.7323687962715</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>135.6762311797747</v>
       </c>
       <c r="L33" t="n">
         <v>125.3490926623389</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>122.4225604485055</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -29867,28 +29867,28 @@
         <v>126.0954398958495</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>58.60896447484984</v>
       </c>
       <c r="Q33" t="n">
         <v>145.0940204505213</v>
       </c>
       <c r="R33" t="n">
-        <v>190.0257805971765</v>
+        <v>135.7385435371773</v>
       </c>
       <c r="S33" t="n">
-        <v>191.8955649522593</v>
+        <v>226.6034035170923</v>
       </c>
       <c r="T33" t="n">
         <v>215.0370598435168</v>
       </c>
       <c r="U33" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V33" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W33" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -29916,19 +29916,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>188.5990895556254</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.7145309437669</v>
       </c>
       <c r="H34" t="n">
-        <v>165.9467011478387</v>
+        <v>236.855166964496</v>
       </c>
       <c r="I34" t="n">
-        <v>165.2666490039704</v>
+        <v>210.1744556871008</v>
       </c>
       <c r="J34" t="n">
-        <v>143.0084423346752</v>
+        <v>121.2121579575504</v>
       </c>
       <c r="K34" t="n">
         <v>68.62817916039586</v>
@@ -29937,7 +29937,7 @@
         <v>34.19696075465782</v>
       </c>
       <c r="M34" t="n">
-        <v>27.37318353055643</v>
+        <v>143.0474437998772</v>
       </c>
       <c r="N34" t="n">
         <v>18.62520307538138</v>
@@ -29946,10 +29946,10 @@
         <v>39.42323441888078</v>
       </c>
       <c r="P34" t="n">
-        <v>147.6265796099167</v>
+        <v>60.14232658241811</v>
       </c>
       <c r="Q34" t="n">
-        <v>236.8551669644961</v>
+        <v>128.3688647731045</v>
       </c>
       <c r="R34" t="n">
         <v>204.0484816844983</v>
@@ -29961,13 +29961,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U34" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V34" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W34" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -30004,28 +30004,28 @@
         <v>250.1529948269971</v>
       </c>
       <c r="I35" t="n">
-        <v>250.1529948269971</v>
+        <v>242.1920463707886</v>
       </c>
       <c r="J35" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="K35" t="n">
-        <v>220.6743361046999</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="L35" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="M35" t="n">
-        <v>91.31861790462419</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="O35" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="P35" t="n">
-        <v>250.1529948269971</v>
+        <v>19.50187917374321</v>
       </c>
       <c r="Q35" t="n">
         <v>250.1529948269971</v>
@@ -30077,19 +30077,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>165.6486656402384</v>
+        <v>148.761012594616</v>
       </c>
       <c r="H36" t="n">
         <v>125.893992481459</v>
       </c>
       <c r="I36" t="n">
-        <v>114.48982318888</v>
+        <v>107.928339036597</v>
       </c>
       <c r="J36" t="n">
-        <v>54.02537789568659</v>
+        <v>135.7323687962715</v>
       </c>
       <c r="K36" t="n">
-        <v>45.49287750098988</v>
+        <v>135.6762311797747</v>
       </c>
       <c r="L36" t="n">
         <v>125.3490926623389</v>
@@ -30107,7 +30107,7 @@
         <v>125.0272939704075</v>
       </c>
       <c r="Q36" t="n">
-        <v>145.0940204505213</v>
+        <v>161.9816734961437</v>
       </c>
       <c r="R36" t="n">
         <v>165.2365855749132</v>
@@ -30165,13 +30165,13 @@
         <v>165.2666490039704</v>
       </c>
       <c r="J37" t="n">
-        <v>143.0084423346752</v>
+        <v>121.2121579575504</v>
       </c>
       <c r="K37" t="n">
-        <v>137.7981397517307</v>
+        <v>68.62817916039586</v>
       </c>
       <c r="L37" t="n">
-        <v>34.19696075465782</v>
+        <v>129.7338200997674</v>
       </c>
       <c r="M37" t="n">
         <v>143.0474437998772</v>
@@ -30180,13 +30180,13 @@
         <v>129.9630835905926</v>
       </c>
       <c r="O37" t="n">
-        <v>145.0742342239726</v>
+        <v>220.2894370445269</v>
       </c>
       <c r="P37" t="n">
-        <v>201.5531014036966</v>
+        <v>60.14232658241811</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.7111018018875</v>
+        <v>128.3688647731045</v>
       </c>
       <c r="R37" t="n">
         <v>204.0484816844983</v>
@@ -30195,13 +30195,13 @@
         <v>235.6777742193615</v>
       </c>
       <c r="T37" t="n">
-        <v>250.1529948269971</v>
+        <v>223.8203341576757</v>
       </c>
       <c r="U37" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="W37" t="n">
         <v>250.1529948269971</v>
@@ -30250,16 +30250,16 @@
         <v>250.1529948269971</v>
       </c>
       <c r="L38" t="n">
-        <v>228.291128846287</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="M38" t="n">
-        <v>249.8937168071982</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="N38" t="n">
-        <v>250.1529948269971</v>
+        <v>228.5802570932817</v>
       </c>
       <c r="O38" t="n">
-        <v>217.3592102577949</v>
+        <v>4.233816377221636</v>
       </c>
       <c r="P38" t="n">
         <v>19.50187917374321</v>
@@ -30274,7 +30274,7 @@
         <v>250.1529948269971</v>
       </c>
       <c r="T38" t="n">
-        <v>250.1529948269971</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U38" t="n">
         <v>250.1529948269971</v>
@@ -30320,7 +30320,7 @@
         <v>125.893992481459</v>
       </c>
       <c r="I39" t="n">
-        <v>107.928339036597</v>
+        <v>114.48982318888</v>
       </c>
       <c r="J39" t="n">
         <v>135.7323687962715</v>
@@ -30332,22 +30332,22 @@
         <v>125.3490926623389</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>122.4225604485055</v>
       </c>
       <c r="N39" t="n">
         <v>107.9066134679082</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>126.0954398958495</v>
       </c>
       <c r="P39" t="n">
-        <v>125.0272939704075</v>
+        <v>141.9149470160299</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.963937997691115</v>
+        <v>145.0940204505213</v>
       </c>
       <c r="R39" t="n">
-        <v>135.7385435371773</v>
+        <v>165.2365855749132</v>
       </c>
       <c r="S39" t="n">
         <v>191.8955649522593</v>
@@ -30396,13 +30396,13 @@
         <v>168.7145309437669</v>
       </c>
       <c r="H40" t="n">
-        <v>165.9467011478387</v>
+        <v>246.2058836109402</v>
       </c>
       <c r="I40" t="n">
         <v>165.2666490039704</v>
       </c>
       <c r="J40" t="n">
-        <v>143.0084423346752</v>
+        <v>121.2121579575504</v>
       </c>
       <c r="K40" t="n">
         <v>137.7981397517307</v>
@@ -30414,16 +30414,16 @@
         <v>143.0474437998772</v>
       </c>
       <c r="N40" t="n">
-        <v>98.88438553848269</v>
+        <v>18.62520307538138</v>
       </c>
       <c r="O40" t="n">
         <v>145.0742342239726</v>
       </c>
       <c r="P40" t="n">
-        <v>60.14232658241811</v>
+        <v>147.6265796099167</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.7111018018875</v>
+        <v>128.3688647731045</v>
       </c>
       <c r="R40" t="n">
         <v>204.0484816844983</v>
@@ -30481,25 +30481,25 @@
         <v>250.1529948269971</v>
       </c>
       <c r="J41" t="n">
+        <v>79.38441504035325</v>
+      </c>
+      <c r="K41" t="n">
         <v>250.1529948269971</v>
       </c>
-      <c r="K41" t="n">
-        <v>157.0637680695817</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="M41" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="O41" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="P41" t="n">
-        <v>250.1529948269971</v>
+        <v>19.50187917374321</v>
       </c>
       <c r="Q41" t="n">
         <v>250.1529948269971</v>
@@ -30566,22 +30566,22 @@
         <v>135.6762311797747</v>
       </c>
       <c r="L42" t="n">
-        <v>142.2367457079613</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>122.4225604485055</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>107.9066134679082</v>
       </c>
       <c r="O42" t="n">
         <v>126.0954398958495</v>
       </c>
       <c r="P42" t="n">
-        <v>125.0272939704075</v>
+        <v>141.91494701603</v>
       </c>
       <c r="Q42" t="n">
-        <v>145.0940204505213</v>
+        <v>99.54339907544228</v>
       </c>
       <c r="R42" t="n">
         <v>165.2365855749132</v>
@@ -30645,37 +30645,37 @@
         <v>137.7981397517307</v>
       </c>
       <c r="L43" t="n">
-        <v>139.4805673535851</v>
+        <v>34.19696075465782</v>
       </c>
       <c r="M43" t="n">
-        <v>143.0474437998772</v>
+        <v>27.37318353055643</v>
       </c>
       <c r="N43" t="n">
-        <v>210.2222660536941</v>
+        <v>18.62520307538138</v>
       </c>
       <c r="O43" t="n">
-        <v>145.0742342239726</v>
+        <v>39.42323441888078</v>
       </c>
       <c r="P43" t="n">
-        <v>147.6265796099167</v>
+        <v>60.14232658241811</v>
       </c>
       <c r="Q43" t="n">
         <v>170.7111018018875</v>
       </c>
       <c r="R43" t="n">
-        <v>204.0484816844983</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="S43" t="n">
-        <v>235.6777742193615</v>
+        <v>238.4558032280956</v>
       </c>
       <c r="T43" t="n">
-        <v>223.8203341576757</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="U43" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="V43" t="n">
-        <v>245.1090151844499</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="W43" t="n">
         <v>250.1529948269971</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="C44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="D44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="E44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="F44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="G44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="H44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="I44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="J44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="K44" t="n">
-        <v>10.62810875858515</v>
+        <v>250.152994826997</v>
       </c>
       <c r="L44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="M44" t="n">
-        <v>250.1529948269971</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="O44" t="n">
-        <v>231.4957428546093</v>
+        <v>185.2791745518402</v>
       </c>
       <c r="P44" t="n">
-        <v>250.1529948269971</v>
+        <v>19.50187917374321</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="R44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="S44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="T44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="V44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="W44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="X44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="Y44" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
     </row>
     <row r="45">
@@ -30788,7 +30788,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>165.6486656402384</v>
+        <v>148.761012594616</v>
       </c>
       <c r="H45" t="n">
         <v>125.893992481459</v>
@@ -30800,7 +30800,7 @@
         <v>135.7323687962715</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>135.6762311797747</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -30812,19 +30812,19 @@
         <v>107.9066134679082</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>126.0954398958495</v>
       </c>
       <c r="P45" t="n">
         <v>125.0272939704075</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.963937997691115</v>
+        <v>145.0940204505213</v>
       </c>
       <c r="R45" t="n">
-        <v>135.7385435371773</v>
+        <v>165.2365855749132</v>
       </c>
       <c r="S45" t="n">
-        <v>191.8955649522593</v>
+        <v>208.7832179978818</v>
       </c>
       <c r="T45" t="n">
         <v>215.0370598435168</v>
@@ -30836,7 +30836,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30858,7 +30858,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>225.4418327138121</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30882,19 +30882,19 @@
         <v>137.7981397517307</v>
       </c>
       <c r="L46" t="n">
-        <v>34.19696075465782</v>
+        <v>139.4805673535851</v>
       </c>
       <c r="M46" t="n">
         <v>143.0474437998772</v>
       </c>
       <c r="N46" t="n">
-        <v>18.62520307538138</v>
+        <v>210.2222660536943</v>
       </c>
       <c r="O46" t="n">
-        <v>145.0742342239726</v>
+        <v>39.42323441888078</v>
       </c>
       <c r="P46" t="n">
-        <v>60.14232658241811</v>
+        <v>147.6265796099167</v>
       </c>
       <c r="Q46" t="n">
         <v>170.7111018018875</v>
@@ -30909,13 +30909,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U46" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>42.49402539587334</v>
+        <v>36.47716529813681</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>42.49402539587334</v>
+        <v>17.39464797412037</v>
       </c>
       <c r="N11" t="n">
-        <v>19.26453899222853</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="O11" t="n">
-        <v>42.49402539587334</v>
+        <v>29.39930720046398</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>21.51255608461961</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35471,13 +35471,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>27.16630779553462</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>27.1663077955348</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35553,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>32.24740095355505</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,16 +35577,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>30.63154814123675</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35595,7 +35595,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.615852812318262</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>36.47716529813685</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,28 +35653,28 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="N14" t="n">
-        <v>4.299929778711296</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="O14" t="n">
-        <v>42.49402539587334</v>
+        <v>12.14881928540535</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="Q14" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>28.62827579144264</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.836062181357318</v>
+        <v>2.836062181357317</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -35717,7 +35717,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>27.1663077955348</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35747,10 +35747,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>27.16630779553461</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>42.49402539587334</v>
+        <v>22.33663398541125</v>
       </c>
       <c r="E16" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35823,16 +35823,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.85969566805942</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.38770528549561</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.615852812318262</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -35847,7 +35847,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.294914155825495</v>
       </c>
     </row>
     <row r="17">
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>42.49402539587334</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>23.7604148602331</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35905,19 +35905,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.77709507684814</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="T17" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,16 +36115,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>40.77709507684815</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>40.777095076848</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,25 +36133,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>42.49402539587317</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>42.49402539587334</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>77.40126617658942</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36370,28 +36370,28 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>57.25726207405175</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>77.40126617658942</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>77.40126617658942</v>
       </c>
       <c r="R23" t="n">
-        <v>74.27394229066675</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>77.40126617658957</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>77.40126617658957</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>77.40126617658957</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,37 +36592,37 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>157.4707519241429</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>164.6243352727426</v>
+        <v>226.2270582059108</v>
       </c>
       <c r="L26" t="n">
-        <v>42.35333818240488</v>
+        <v>279.2085051469008</v>
       </c>
       <c r="M26" t="n">
-        <v>313.1490523519873</v>
+        <v>156.3952865009301</v>
       </c>
       <c r="N26" t="n">
-        <v>117.8595923836899</v>
+        <v>133.6262202612267</v>
       </c>
       <c r="O26" t="n">
-        <v>266.2544741649601</v>
+        <v>266.25447416496</v>
       </c>
       <c r="P26" t="n">
-        <v>217.3532877907529</v>
+        <v>217.3532877907527</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.8317735583366</v>
+        <v>143.8317735583364</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>8.639355450553881</v>
+        <v>8.639355450553738</v>
       </c>
       <c r="T26" t="n">
-        <v>14.25504217585951</v>
+        <v>14.25504217585937</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>34.70783856483252</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>34.70783856483296</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>91.67251671378526</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>11.1089229791821</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>115.8162724997872</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>13.03483280682032</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -36829,37 +36829,37 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>157.4707519241428</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>189.0917590122028</v>
+        <v>226.2270582059109</v>
       </c>
       <c r="L29" t="n">
-        <v>42.35333818240488</v>
+        <v>279.2085051469009</v>
       </c>
       <c r="M29" t="n">
-        <v>313.1490523519873</v>
+        <v>313.1490523519872</v>
       </c>
       <c r="N29" t="n">
-        <v>61.98426830883892</v>
+        <v>307.4720156480407</v>
       </c>
       <c r="O29" t="n">
-        <v>266.2544741649601</v>
+        <v>29.39930720046404</v>
       </c>
       <c r="P29" t="n">
-        <v>217.3532877907529</v>
+        <v>106.4560353578457</v>
       </c>
       <c r="Q29" t="n">
         <v>143.8317735583365</v>
       </c>
       <c r="R29" t="n">
-        <v>40.0472557859448</v>
+        <v>40.04725578594477</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>14.25504217585948</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -36899,7 +36899,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>15.16558603980714</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -36935,7 +36935,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>34.70783856483269</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -36950,7 +36950,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>19.54225252502548</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -36984,10 +36984,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>71.58851796052564</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>44.22775453926169</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>24.035339759264</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>91.78093274052343</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37066,37 +37066,37 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>157.4707519241428</v>
+        <v>157.4707519241427</v>
       </c>
       <c r="K32" t="n">
-        <v>226.2270582059109</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>279.208505146901</v>
+        <v>42.35333818240488</v>
       </c>
       <c r="M32" t="n">
-        <v>195.1177311273241</v>
+        <v>262.3687507502949</v>
       </c>
       <c r="N32" t="n">
-        <v>307.4720156480407</v>
+        <v>307.4720156480406</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>266.25447416496</v>
       </c>
       <c r="P32" t="n">
-        <v>217.3532877907529</v>
+        <v>217.3532877907527</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>143.8317735583364</v>
       </c>
       <c r="R32" t="n">
-        <v>40.0472557859448</v>
+        <v>40.04725578594469</v>
       </c>
       <c r="S32" t="n">
-        <v>8.639355450553852</v>
+        <v>8.639355450553738</v>
       </c>
       <c r="T32" t="n">
-        <v>14.25504217585948</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -37163,16 +37163,16 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>9.918643542569296</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>24.78919502226331</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>34.70783856483296</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -37212,16 +37212,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>49.6722073371787</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>70.9084658166573</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>44.90780668313039</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.14406516260861</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.960948456208541</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>170.7685797866438</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>239.5248860684119</v>
       </c>
       <c r="L35" t="n">
-        <v>292.506333009402</v>
+        <v>292.5063330094019</v>
       </c>
       <c r="M35" t="n">
-        <v>167.6125032921154</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>70.61684868354462</v>
+        <v>194.732289939019</v>
       </c>
       <c r="O35" t="n">
-        <v>279.5523020274612</v>
+        <v>279.5523020274611</v>
       </c>
       <c r="P35" t="n">
-        <v>230.6511156532539</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>19.54948747321934</v>
+        <v>19.54948747321928</v>
       </c>
       <c r="R35" t="n">
-        <v>10.76084357075323</v>
+        <v>53.34508364844578</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>27.55287003836052</v>
+        <v>27.55287003836046</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37373,7 +37373,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>16.88765304562236</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>16.88765304562241</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>75.21520282055435</v>
       </c>
       <c r="P37" t="n">
-        <v>53.92652179377991</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37491,13 +37491,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>26.33266066932147</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>5.043979642547157</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,22 +37537,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.96094845620857</v>
+        <v>7.960948456208484</v>
       </c>
       <c r="J38" t="n">
-        <v>170.7685797866439</v>
+        <v>170.7685797866438</v>
       </c>
       <c r="K38" t="n">
-        <v>239.524886068412</v>
+        <v>239.5248860684119</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>292.5063330094019</v>
       </c>
       <c r="M38" t="n">
-        <v>278.5428357484579</v>
+        <v>35.16211051113275</v>
       </c>
       <c r="N38" t="n">
-        <v>320.7698435105418</v>
+        <v>299.1971057768263</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37561,16 +37561,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>157.1296014208376</v>
+        <v>157.1296014208375</v>
       </c>
       <c r="R38" t="n">
-        <v>53.34508364844586</v>
+        <v>53.34508364844578</v>
       </c>
       <c r="S38" t="n">
-        <v>21.93718331305492</v>
+        <v>21.93718331305483</v>
       </c>
       <c r="T38" t="n">
-        <v>27.55287003836055</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>16.88765304562233</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>16.88765304562241</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>80.25918246310151</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>80.25918246310131</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>7.960948456208484</v>
       </c>
       <c r="J41" t="n">
-        <v>170.7685797866438</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>146.4356593109965</v>
+        <v>81.61555605551911</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>292.5063330094019</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6419677732279</v>
+        <v>35.16211051113275</v>
       </c>
       <c r="N41" t="n">
-        <v>70.61684868354462</v>
+        <v>320.7698435105417</v>
       </c>
       <c r="O41" t="n">
-        <v>68.49197390638943</v>
+        <v>279.5523020274611</v>
       </c>
       <c r="P41" t="n">
-        <v>230.6511156532538</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>157.1296014208375</v>
@@ -37862,19 +37862,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>16.88765304562242</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>80.2591824631015</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37959,19 +37959,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.10451314249876</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2.778029008734186</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>26.33266066932141</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>5.043979642547157</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7.960948456208513</v>
+        <v>7.960948456208399</v>
       </c>
       <c r="J44" t="n">
-        <v>61.19397315514002</v>
+        <v>170.7685797866437</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>239.5248860684118</v>
       </c>
       <c r="L44" t="n">
-        <v>292.5063330094019</v>
+        <v>292.5063330094018</v>
       </c>
       <c r="M44" t="n">
-        <v>35.16211051113278</v>
+        <v>54.75882800571923</v>
       </c>
       <c r="N44" t="n">
-        <v>171.7818028077463</v>
+        <v>37.36903649157586</v>
       </c>
       <c r="O44" t="n">
-        <v>260.8950500550734</v>
+        <v>214.6784817523043</v>
       </c>
       <c r="P44" t="n">
-        <v>230.6511156532539</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>157.1296014208375</v>
+        <v>157.1296014208374</v>
       </c>
       <c r="R44" t="n">
-        <v>10.7608435707532</v>
+        <v>53.34508364844569</v>
       </c>
       <c r="S44" t="n">
-        <v>21.93718331305486</v>
+        <v>21.93718331305475</v>
       </c>
       <c r="T44" t="n">
-        <v>27.55287003836049</v>
+        <v>27.55287003836038</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38084,7 +38084,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>16.88765304562239</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -38120,7 +38120,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>16.8876530456225</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>80.25918246310142</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>80.25918246310168</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
